--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEE6F25-D852-DE4F-AAB0-8BBF9FF6FAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3778B-2EE4-2F4D-A5CF-7CAEE9937326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2440" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
     <sheet name="blend" sheetId="2" r:id="rId2"/>
     <sheet name="unknown" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="60">
   <si>
     <t>ion</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>fwhm_awsom_true</t>
+  </si>
+  <si>
+    <t>fwhm_true_cross</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,9 +586,10 @@
     <col min="11" max="11" width="17.83203125" customWidth="1"/>
     <col min="12" max="12" width="16.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +635,11 @@
       <c r="O1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -675,8 +682,12 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <f>SQRT((H2^2)-(0.0627^2))</f>
+        <v>4.8059442360476878E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -716,8 +727,12 @@
       <c r="N3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">SQRT((H3^2)-(0.0627^2))</f>
+        <v>1.7137969541342987E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -760,8 +775,12 @@
       <c r="N4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>5.1280698123173006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -804,8 +823,12 @@
       <c r="N5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4.8059442360476878E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -848,8 +871,12 @@
       <c r="N6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>6.0313431339959415E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -892,8 +919,12 @@
       <c r="N7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -936,8 +967,12 @@
       <c r="N8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>5.1280698123173006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -980,8 +1015,12 @@
       <c r="N9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>4.6397305956272929E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1024,8 +1063,12 @@
       <c r="N10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>4.2950087310737788E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1071,8 +1114,12 @@
       <c r="O11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>5.438483244434978E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1115,8 +1162,12 @@
       <c r="N12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>4.9686114760564642E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1159,8 +1210,12 @@
       <c r="N13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>7.531739506913393E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1203,8 +1258,12 @@
       <c r="N14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>4.9686114760564642E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1247,8 +1306,12 @@
       <c r="N15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>4.9686114760564642E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1291,8 +1354,12 @@
       <c r="N16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>5.1280698123173006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1335,8 +1402,12 @@
       <c r="N17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>5.8861787264744163E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1379,8 +1450,12 @@
       <c r="N18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>3.5393643497102681E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1423,8 +1498,12 @@
       <c r="N19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>5.8861787264744163E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1467,8 +1546,12 @@
       <c r="N20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>4.1154708114625224E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1511,8 +1594,12 @@
       <c r="N21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>4.9686114760564642E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1555,8 +1642,12 @@
       <c r="N22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>6.1747145683019214E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1599,8 +1690,12 @@
       <c r="N23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>4.4695749238602096E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1643,8 +1738,12 @@
       <c r="N24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>6.4565548088744665E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1687,8 +1786,12 @@
       <c r="N25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>5.1280698123173006E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1731,8 +1834,12 @@
       <c r="N26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>5.2846097301503733E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1775,8 +1882,12 @@
       <c r="N27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>5.1280698123173006E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1819,8 +1930,12 @@
       <c r="N28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>4.6397305956272929E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1860,8 +1975,12 @@
       <c r="N29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>2.3615884484812343E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1904,8 +2023,12 @@
       <c r="N30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>4.2950087310737788E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1948,8 +2071,12 @@
       <c r="N31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>4.4695749238602096E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1992,8 +2119,12 @@
       <c r="N32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>5.5899105538460989E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2033,8 +2164,12 @@
       <c r="N33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>1.2833939379629285E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2080,8 +2215,12 @@
       <c r="O34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>5.7390852929713465E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2124,8 +2263,12 @@
       <c r="N35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>4.9686114760564642E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2156,8 +2299,12 @@
       <c r="N36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2203,8 +2350,12 @@
       <c r="O37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>6.3164151225200513E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2247,8 +2398,12 @@
       <c r="N38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>5.1280698123173006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -2291,8 +2446,12 @@
       <c r="N39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>7.4011553152193751E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2335,8 +2494,12 @@
       <c r="N40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>3.7385959931503683E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2379,8 +2542,12 @@
       <c r="N41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>5.5899105538460989E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2423,8 +2590,12 @@
       <c r="N42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>4.4695749238602096E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2467,8 +2638,12 @@
       <c r="N43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>5.2846097301503733E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2511,8 +2686,12 @@
       <c r="N44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>6.0313431339959415E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2552,8 +2731,12 @@
       <c r="N45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>1.7137969541342987E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2596,8 +2779,12 @@
       <c r="N46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>6.4565548088744665E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2637,8 +2824,12 @@
       <c r="N47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2681,8 +2872,12 @@
       <c r="N48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>3.9302798882522333E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2728,8 +2923,12 @@
       <c r="O49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>4.6397305956272929E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2775,8 +2974,12 @@
       <c r="O50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>3.3312310036981811E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2816,8 +3019,12 @@
       <c r="N51" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2848,8 +3055,12 @@
       <c r="N52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2892,8 +3103,12 @@
       <c r="N53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>8.5467596198793364E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2939,8 +3154,12 @@
       <c r="O54" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>4.9686114760564642E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2983,8 +3202,12 @@
       <c r="N55" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>3.3312310036981811E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3024,8 +3247,12 @@
       <c r="N56" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3065,8 +3292,12 @@
       <c r="N57" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>1.7137969541342987E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3106,8 +3337,12 @@
       <c r="N58" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>3.1124106412875538E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3150,8 +3385,12 @@
       <c r="N59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>7.1370231889773206E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3194,8 +3433,12 @@
       <c r="N60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>5.8861787264744163E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3238,8 +3481,12 @@
       <c r="N61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>6.1747145683019214E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -3285,8 +3532,12 @@
       <c r="O62" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>5.8861787264744163E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3329,8 +3580,12 @@
       <c r="N63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>6.1747145683019214E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -3376,8 +3631,12 @@
       <c r="O64" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3420,8 +3679,12 @@
       <c r="N65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>5.7390852929713465E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3464,8 +3727,12 @@
       <c r="N66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>5.7390852929713465E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3508,8 +3775,12 @@
       <c r="N67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <f t="shared" ref="P67:P86" si="1">SQRT((H67^2)-(0.0627^2))</f>
+        <v>6.0313431339959415E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3552,8 +3823,12 @@
       <c r="N68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <f t="shared" si="1"/>
+        <v>5.438483244434978E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3599,8 +3874,12 @@
       <c r="O69" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <f t="shared" si="1"/>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -3640,8 +3919,12 @@
       <c r="N70" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -3684,8 +3967,12 @@
       <c r="N71" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <f t="shared" si="1"/>
+        <v>6.1747145683019214E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3725,8 +4012,12 @@
       <c r="N72" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3769,8 +4060,12 @@
       <c r="N73" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -3813,8 +4108,12 @@
       <c r="N74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <f t="shared" si="1"/>
+        <v>6.5952331270395584E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -3857,8 +4156,12 @@
       <c r="N75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <f t="shared" si="1"/>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
@@ -3901,8 +4204,12 @@
       <c r="N76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>6.3164151225200513E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -3945,8 +4252,12 @@
       <c r="N77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>6.5952331270395584E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -3989,8 +4300,12 @@
       <c r="N78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>7.6614032657209744E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4027,8 +4342,12 @@
       <c r="O79" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <f t="shared" si="1"/>
+        <v>6.0313431339959415E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4065,8 +4384,12 @@
       <c r="O80" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <f t="shared" si="1"/>
+        <v>7.6614032657209744E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -4109,8 +4432,12 @@
       <c r="N81" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>3.3312310036981811E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -4153,8 +4480,12 @@
       <c r="N82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>4.6397305956272929E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -4197,8 +4528,12 @@
       <c r="N83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <f t="shared" si="1"/>
+        <v>6.8685588007965689E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -4241,8 +4576,12 @@
       <c r="N84" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <f t="shared" si="1"/>
+        <v>6.5952331270395584E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -4285,8 +4624,12 @@
       <c r="O85" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -4325,6 +4668,10 @@
       </c>
       <c r="N86" t="s">
         <v>22</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="1"/>
+        <v>3.1124106412875538E-2</v>
       </c>
     </row>
   </sheetData>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3778B-2EE4-2F4D-A5CF-7CAEE9937326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E9106-3D8C-3E4F-A007-B821E5E97633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="60">
   <si>
     <t>ion</t>
   </si>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">SQRT((H3^2)-(0.0627^2))</f>
+        <f>SQRT((H3^2)-(0.0627^2))</f>
         <v>1.7137969541342987E-2</v>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f>SQRT((H4^2)-(0.0627^2))</f>
         <v>5.1280698123173006E-2</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f>SQRT((H5^2)-(0.0627^2))</f>
         <v>4.8059442360476878E-2</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f>SQRT((H6^2)-(0.0627^2))</f>
         <v>6.0313431339959415E-2</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
+        <f>SQRT((H7^2)-(0.0627^2))</f>
         <v>6.7325403823519689E-2</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f>SQRT((H8^2)-(0.0627^2))</f>
         <v>5.1280698123173006E-2</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f>SQRT((H9^2)-(0.0627^2))</f>
         <v>4.6397305956272929E-2</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f>SQRT((H10^2)-(0.0627^2))</f>
         <v>4.2950087310737788E-2</v>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f>SQRT((H11^2)-(0.0627^2))</f>
         <v>5.438483244434978E-2</v>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f>SQRT((H12^2)-(0.0627^2))</f>
         <v>4.9686114760564642E-2</v>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f>SQRT((H13^2)-(0.0627^2))</f>
         <v>7.531739506913393E-2</v>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f>SQRT((H14^2)-(0.0627^2))</f>
         <v>4.9686114760564642E-2</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f>SQRT((H15^2)-(0.0627^2))</f>
         <v>4.9686114760564642E-2</v>
       </c>
     </row>
@@ -1316,47 +1316,47 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>55.85</v>
       </c>
       <c r="E16">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>188.49</v>
+        <v>189.00299999999999</v>
       </c>
       <c r="G16">
-        <v>188.49299999999999</v>
+        <v>188.99700000000001</v>
       </c>
       <c r="H16">
-        <v>8.1000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I16">
-        <v>2.0000000000000001E-4</v>
+        <v>0.02</v>
       </c>
       <c r="J16">
-        <v>4.1799999999999997E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="K16">
-        <v>8.4000000000000005E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M16">
-        <v>4.6899999999999997E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="N16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
-        <v>5.1280698123173006E-2</v>
+        <f>SQRT((H16^2)-(0.0627^2))</f>
+        <v>5.8861787264744163E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1364,47 +1364,47 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>55.85</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F17">
-        <v>189.00299999999999</v>
+        <v>189.578</v>
       </c>
       <c r="G17">
-        <v>188.99700000000001</v>
+        <v>189.572</v>
       </c>
       <c r="H17">
-        <v>8.5999999999999993E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J17">
-        <v>5.0500000000000003E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="K17">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M17">
-        <v>2.7199999999999998E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
-        <v>5.8861787264744163E-2</v>
+        <f>SQRT((H17^2)-(0.0627^2))</f>
+        <v>3.5393643497102681E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1412,47 +1412,47 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>55.85</v>
       </c>
       <c r="E18">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>189.578</v>
+        <v>189.721</v>
       </c>
       <c r="G18">
-        <v>189.572</v>
+        <v>189.71100000000001</v>
       </c>
       <c r="H18">
-        <v>7.1999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I18">
         <v>0.01</v>
       </c>
       <c r="J18">
-        <v>1.9800000000000002E-2</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="K18">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="M18">
-        <v>4.36E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
-        <v>3.5393643497102681E-2</v>
+        <f>SQRT((H18^2)-(0.0627^2))</f>
+        <v>5.8861787264744163E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1460,47 +1460,47 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
         <v>55.85</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F19">
-        <v>189.721</v>
+        <v>189.93299999999999</v>
       </c>
       <c r="G19">
-        <v>189.71100000000001</v>
+        <v>189.935</v>
       </c>
       <c r="H19">
-        <v>8.5999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I19">
-        <v>0.01</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="J19">
-        <v>4.9700000000000001E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="K19">
-        <v>8.5000000000000006E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>1E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="M19">
-        <v>4.8399999999999999E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
-        <v>5.8861787264744163E-2</v>
+        <f>SQRT((H19^2)-(0.0627^2))</f>
+        <v>4.1154708114625224E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1508,47 +1508,47 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <v>55.85</v>
       </c>
       <c r="E20">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F20">
-        <v>189.93299999999999</v>
+        <v>190.03399999999999</v>
       </c>
       <c r="G20">
-        <v>189.935</v>
+        <v>190.03700000000001</v>
       </c>
       <c r="H20">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I20">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J20">
-        <v>2.9100000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="K20">
-        <v>8.3000000000000004E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>4.0000000000000003E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="M20">
-        <v>4.41E-2</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="N20" t="s">
         <v>11</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
-        <v>4.1154708114625224E-2</v>
+        <f>SQRT((H20^2)-(0.0627^2))</f>
+        <v>4.9686114760564642E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1556,47 +1556,47 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>55.85</v>
       </c>
       <c r="E21">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>190.03399999999999</v>
+        <v>190.37899999999999</v>
       </c>
       <c r="G21">
-        <v>190.03700000000001</v>
+        <v>190.38200000000001</v>
       </c>
       <c r="H21">
-        <v>0.08</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I21">
-        <v>5.9999999999999995E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J21">
-        <v>3.8899999999999997E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="K21">
-        <v>8.5000000000000006E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L21" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M21">
-        <v>4.8099999999999997E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
-        <v>4.9686114760564642E-2</v>
+        <f>SQRT((H21^2)-(0.0627^2))</f>
+        <v>6.1747145683019214E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1604,52 +1604,52 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1">
         <v>55.85</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F22">
-        <v>190.37899999999999</v>
+        <v>191.209</v>
       </c>
       <c r="G22">
-        <v>190.38200000000001</v>
+        <v>191.20599999999999</v>
       </c>
       <c r="H22">
-        <v>8.7999999999999995E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I22">
-        <v>8.9999999999999993E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J22">
-        <v>5.4600000000000003E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K22">
-        <v>0.09</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L22" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M22">
-        <v>5.67E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="N22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
-        <v>6.1747145683019214E-2</v>
+        <f>SQRT((H22^2)-(0.0627^2))</f>
+        <v>4.4695749238602096E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1657,90 +1657,90 @@
       <c r="C23">
         <v>8</v>
       </c>
-      <c r="D23" s="1">
-        <v>55.85</v>
+      <c r="D23">
+        <v>54.938000000000002</v>
       </c>
       <c r="E23">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F23">
-        <v>191.209</v>
+        <v>191.60400000000001</v>
       </c>
       <c r="G23">
-        <v>191.20599999999999</v>
+        <v>191.63499999999999</v>
       </c>
       <c r="H23">
-        <v>7.6999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I23">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J23">
-        <v>3.3099999999999997E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="K23">
-        <v>8.6999999999999994E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>8.9999999999999998E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M23">
-        <v>5.1999999999999998E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="N23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
-        <v>4.4695749238602096E-2</v>
+        <f>SQRT((H23^2)-(0.0627^2))</f>
+        <v>6.4565548088744665E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>54.938000000000002</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>55.85</v>
       </c>
       <c r="E24">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="F24">
-        <v>191.60400000000001</v>
+        <v>192.39400000000001</v>
       </c>
       <c r="G24">
-        <v>191.63499999999999</v>
+        <v>192.39400000000001</v>
       </c>
       <c r="H24">
-        <v>0.09</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I24">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J24">
-        <v>5.6899999999999999E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="K24">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M24">
-        <v>4.4499999999999998E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="N24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
-        <v>6.4565548088744665E-2</v>
+        <f>SQRT((H24^2)-(0.0627^2))</f>
+        <v>5.1280698123173006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1748,47 +1748,47 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>55.85</v>
       </c>
       <c r="E25">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>192.39400000000001</v>
+        <v>192.626</v>
       </c>
       <c r="G25">
-        <v>192.39400000000001</v>
+        <v>192.62700000000001</v>
       </c>
       <c r="H25">
-        <v>8.1000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I25">
         <v>2E-3</v>
       </c>
       <c r="J25">
-        <v>4.19E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="K25">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M25">
-        <v>5.9299999999999999E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="N25" t="s">
         <v>11</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
-        <v>5.1280698123173006E-2</v>
+        <f>SQRT((H25^2)-(0.0627^2))</f>
+        <v>5.2846097301503733E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -1796,47 +1796,47 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
         <v>55.85</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F26">
-        <v>192.626</v>
+        <v>193.50899999999999</v>
       </c>
       <c r="G26">
-        <v>192.62700000000001</v>
+        <v>193.50899999999999</v>
       </c>
       <c r="H26">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I26">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J26">
-        <v>4.2700000000000002E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="K26">
-        <v>8.5000000000000006E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M26">
-        <v>4.8800000000000003E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="N26" t="s">
         <v>11</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>5.2846097301503733E-2</v>
+        <f>SQRT((H26^2)-(0.0627^2))</f>
+        <v>5.1280698123173006E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1844,47 +1844,47 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>55.85</v>
       </c>
       <c r="E27">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="F27">
-        <v>193.50899999999999</v>
+        <v>193.71100000000001</v>
       </c>
       <c r="G27">
-        <v>193.50899999999999</v>
+        <v>193.715</v>
       </c>
       <c r="H27">
-        <v>8.1000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I27">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J27">
-        <v>4.0399999999999998E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="K27">
-        <v>9.1999999999999998E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M27">
-        <v>5.9400000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="N27" t="s">
         <v>11</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
-        <v>5.1280698123173006E-2</v>
+        <f>SQRT((H27^2)-(0.0627^2))</f>
+        <v>4.6397305956272929E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1892,140 +1892,140 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1">
         <v>55.85</v>
       </c>
       <c r="E28">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F28">
-        <v>193.71100000000001</v>
+        <v>193.958</v>
       </c>
       <c r="G28">
-        <v>193.715</v>
+        <v>193.96799999999999</v>
       </c>
       <c r="H28">
-        <v>7.8E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I28">
-        <v>1E-3</v>
-      </c>
-      <c r="J28">
-        <v>3.4599999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K28">
-        <v>8.4000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M28">
-        <v>4.7E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="N28" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
-        <v>4.6397305956272929E-2</v>
+        <f>SQRT((H28^2)-(0.0627^2))</f>
+        <v>2.3615884484812343E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1">
-        <v>55.85</v>
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>54.938000000000002</v>
       </c>
       <c r="E29">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F29">
-        <v>193.958</v>
+        <v>194.32300000000001</v>
       </c>
       <c r="G29">
-        <v>193.96799999999999</v>
+        <v>194.29900000000001</v>
       </c>
       <c r="H29">
-        <v>6.7000000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="I29">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="K29">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M29">
-        <v>4.19E-2</v>
+        <v>5.04E-2</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
-        <v>2.3615884484812343E-2</v>
+        <f>SQRT((H29^2)-(0.0627^2))</f>
+        <v>4.2950087310737788E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>54.938000000000002</v>
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>55.85</v>
       </c>
       <c r="E30">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F30">
-        <v>194.32300000000001</v>
+        <v>194.65600000000001</v>
       </c>
       <c r="G30">
-        <v>194.29900000000001</v>
+        <v>194.661</v>
       </c>
       <c r="H30">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I30">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J30">
-        <v>3.1099999999999999E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K30">
-        <v>8.5999999999999993E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="M30">
-        <v>5.04E-2</v>
+        <v>4.53E-2</v>
       </c>
       <c r="N30" t="s">
         <v>11</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
-        <v>4.2950087310737788E-2</v>
+        <f>SQRT((H30^2)-(0.0627^2))</f>
+        <v>4.4695749238602096E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2033,47 +2033,47 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <v>55.85</v>
       </c>
       <c r="E31">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="F31">
-        <v>194.65600000000001</v>
+        <v>195.12299999999999</v>
       </c>
       <c r="G31">
-        <v>194.661</v>
+        <v>195.119</v>
       </c>
       <c r="H31">
-        <v>7.6999999999999999E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I31">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J31">
-        <v>3.3099999999999997E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="K31">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="L31" s="3">
-        <v>6.9999999999999994E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M31">
-        <v>4.53E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="N31" t="s">
         <v>11</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
-        <v>4.4695749238602096E-2</v>
+        <f>SQRT((H31^2)-(0.0627^2))</f>
+        <v>5.5899105538460989E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2081,47 +2081,44 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
         <v>55.85</v>
       </c>
       <c r="E32">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="F32">
-        <v>195.12299999999999</v>
+        <v>195.48</v>
       </c>
       <c r="G32">
-        <v>195.119</v>
+        <v>195.48400000000001</v>
       </c>
       <c r="H32">
-        <v>8.4000000000000005E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J32">
-        <v>4.7500000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K32">
-        <v>9.2999999999999999E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M32">
-        <v>6.13E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="N32" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
-        <v>5.5899105538460989E-2</v>
+        <f>SQRT((H32^2)-(0.0627^2))</f>
+        <v>1.2833939379629285E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2129,44 +2126,50 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1">
         <v>55.85</v>
       </c>
       <c r="E33">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F33">
-        <v>195.48</v>
+        <v>195.96899999999999</v>
       </c>
       <c r="G33">
-        <v>195.48400000000001</v>
+        <v>195.97200000000001</v>
       </c>
       <c r="H33">
-        <v>6.4000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="I33">
-        <v>8.0000000000000002E-3</v>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J33">
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="K33">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L33" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="M33">
-        <v>4.7399999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="O33" t="s">
+        <v>31</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
-        <v>1.2833939379629285E-2</v>
+        <f>SQRT((H33^2)-(0.0627^2))</f>
+        <v>5.7390852929713465E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2174,50 +2177,47 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <v>55.85</v>
       </c>
       <c r="E34">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F34">
-        <v>195.96899999999999</v>
+        <v>196.20599999999999</v>
       </c>
       <c r="G34">
-        <v>195.97200000000001</v>
+        <v>196.21299999999999</v>
       </c>
       <c r="H34">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I34">
-        <v>8.0000000000000004E-4</v>
+        <v>0.01</v>
       </c>
       <c r="J34">
-        <v>4.9599999999999998E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="K34">
-        <v>8.5999999999999993E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L34" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M34">
-        <v>0.05</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="N34" t="s">
         <v>15</v>
       </c>
-      <c r="O34" t="s">
-        <v>31</v>
-      </c>
       <c r="P34">
-        <f t="shared" si="0"/>
-        <v>5.7390852929713465E-2</v>
+        <f>SQRT((H34^2)-(0.0627^2))</f>
+        <v>4.9686114760564642E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2225,47 +2225,35 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
         <v>55.85</v>
       </c>
       <c r="E35">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="F35">
-        <v>196.20599999999999</v>
+        <v>196.49799999999999</v>
       </c>
       <c r="G35">
-        <v>196.21299999999999</v>
+        <v>196.52500000000001</v>
       </c>
       <c r="H35">
-        <v>0.08</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I35">
-        <v>0.01</v>
-      </c>
-      <c r="J35">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="K35">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="M35">
-        <v>4.4900000000000002E-2</v>
+        <v>0.02</v>
       </c>
       <c r="N35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>4.9686114760564642E-2</v>
+        <v>22</v>
+      </c>
+      <c r="P35" t="e">
+        <f>SQRT((H35^2)-(0.0627^2))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -2273,35 +2261,50 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>55.85</v>
       </c>
       <c r="E36">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F36">
-        <v>196.49799999999999</v>
+        <v>197.36600000000001</v>
       </c>
       <c r="G36">
-        <v>196.52500000000001</v>
+        <v>197.36199999999999</v>
       </c>
       <c r="H36">
-        <v>5.7000000000000002E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="I36">
-        <v>0.02</v>
+        <v>2E-3</v>
+      </c>
+      <c r="J36">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K36">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M36">
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="N36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36">
+        <f>SQRT((H36^2)-(0.0627^2))</f>
+        <v>6.3164151225200513E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2309,10 +2312,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1">
         <v>55.85</v>
@@ -2321,182 +2324,179 @@
         <v>5.8</v>
       </c>
       <c r="F37">
-        <v>197.36600000000001</v>
+        <v>197.85599999999999</v>
       </c>
       <c r="G37">
-        <v>197.36199999999999</v>
+        <v>197.85400000000001</v>
       </c>
       <c r="H37">
-        <v>8.8999999999999996E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I37">
-        <v>2E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J37">
-        <v>5.5E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="K37">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="M37">
-        <v>4.7100000000000003E-2</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
-        <v>6.3164151225200513E-2</v>
+        <f>SQRT((H37^2)-(0.0627^2))</f>
+        <v>5.1280698123173006E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>55.85</v>
+        <v>58.7</v>
       </c>
       <c r="E38">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F38">
-        <v>197.85599999999999</v>
+        <v>198.422</v>
       </c>
       <c r="G38">
-        <v>197.85400000000001</v>
+        <v>198.42400000000001</v>
       </c>
       <c r="H38">
-        <v>8.1000000000000003E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="I38">
-        <v>2.9999999999999997E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J38">
-        <v>4.1000000000000002E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="K38">
-        <v>8.4000000000000005E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>2.0000000000000002E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M38">
-        <v>4.6699999999999998E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="N38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
-        <v>5.1280698123173006E-2</v>
+        <f>SQRT((H38^2)-(0.0627^2))</f>
+        <v>7.4011553152193751E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>58.7</v>
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>54.938000000000002</v>
       </c>
       <c r="E39">
         <v>5.9</v>
       </c>
       <c r="F39">
-        <v>198.422</v>
+        <v>199.31700000000001</v>
       </c>
       <c r="G39">
-        <v>198.42400000000001</v>
+        <v>199.31800000000001</v>
       </c>
       <c r="H39">
-        <v>9.7000000000000003E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="I39">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J39">
-        <v>6.7299999999999999E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="K39">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="M39">
-        <v>5.3900000000000003E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="N39" t="s">
         <v>15</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
-        <v>7.4011553152193751E-2</v>
+        <f>SQRT((H39^2)-(0.0627^2))</f>
+        <v>3.7385959931503683E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>54.938000000000002</v>
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>55.85</v>
       </c>
       <c r="E40">
         <v>5.9</v>
       </c>
       <c r="F40">
-        <v>199.31700000000001</v>
+        <v>201.572</v>
       </c>
       <c r="G40">
-        <v>199.31800000000001</v>
+        <v>201.565</v>
       </c>
       <c r="H40">
-        <v>7.2999999999999995E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I40">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J40">
-        <v>2.0799999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="K40">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>2E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M40">
-        <v>5.3199999999999997E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="N40" t="s">
         <v>15</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
-        <v>3.7385959931503683E-2</v>
+        <f>SQRT((H40^2)-(0.0627^2))</f>
+        <v>5.5899105538460989E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2504,47 +2504,47 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>55.85</v>
       </c>
       <c r="E41">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>201.572</v>
+        <v>201.732</v>
       </c>
       <c r="G41">
-        <v>201.565</v>
+        <v>201.73400000000001</v>
       </c>
       <c r="H41">
-        <v>8.4000000000000005E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I41">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J41">
-        <v>4.7E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="K41">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M41">
-        <v>4.8500000000000001E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="N41" t="s">
         <v>15</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
-        <v>5.5899105538460989E-2</v>
+        <f>SQRT((H41^2)-(0.0627^2))</f>
+        <v>4.4695749238602096E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -2552,47 +2552,47 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
         <v>55.85</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F42">
-        <v>201.732</v>
+        <v>202.05099999999999</v>
       </c>
       <c r="G42">
-        <v>201.73400000000001</v>
+        <v>202.04400000000001</v>
       </c>
       <c r="H42">
-        <v>7.6999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I42">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J42">
-        <v>3.2199999999999999E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="K42">
-        <v>8.6999999999999994E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="L42" s="3">
         <v>1E-3</v>
       </c>
       <c r="M42">
-        <v>5.0900000000000001E-2</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="N42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
-        <v>4.4695749238602096E-2</v>
+        <f>SQRT((H42^2)-(0.0627^2))</f>
+        <v>5.2846097301503733E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -2600,47 +2600,47 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>55.85</v>
       </c>
       <c r="E43">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>202.05099999999999</v>
+        <v>202.42400000000001</v>
       </c>
       <c r="G43">
-        <v>202.04400000000001</v>
+        <v>202.42400000000001</v>
       </c>
       <c r="H43">
-        <v>8.2000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I43">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J43">
-        <v>4.3499999999999997E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="K43">
-        <v>9.8000000000000004E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="L43" s="3">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M43">
-        <v>6.9099999999999995E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="N43" t="s">
         <v>11</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
-        <v>5.2846097301503733E-2</v>
+        <f>SQRT((H43^2)-(0.0627^2))</f>
+        <v>6.0313431339959415E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -2660,178 +2660,178 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>202.42400000000001</v>
+        <v>202.71299999999999</v>
       </c>
       <c r="G44">
-        <v>202.42400000000001</v>
+        <v>202.70500000000001</v>
       </c>
       <c r="H44">
-        <v>8.6999999999999994E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I44">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J44">
-        <v>5.1400000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K44">
-        <v>8.8999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L44" s="3">
-        <v>1E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M44">
-        <v>5.5300000000000002E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="N44" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
-        <v>6.0313431339959415E-2</v>
+        <f>SQRT((H44^2)-(0.0627^2))</f>
+        <v>1.7137969541342987E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1">
-        <v>55.85</v>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>51.996000000000002</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F45">
-        <v>202.71299999999999</v>
+        <v>202.83199999999999</v>
       </c>
       <c r="G45">
-        <v>202.70500000000001</v>
+        <v>202.82499999999999</v>
       </c>
       <c r="H45">
-        <v>6.5000000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I45">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J45">
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="K45">
-        <v>0.09</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L45" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M45">
-        <v>5.6800000000000003E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="N45" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
-        <v>1.7137969541342987E-2</v>
+        <f>SQRT((H45^2)-(0.0627^2))</f>
+        <v>6.4565548088744665E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>51.996000000000002</v>
+        <v>54.938000000000002</v>
       </c>
       <c r="E46">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F46">
-        <v>202.83199999999999</v>
+        <v>202.91300000000001</v>
       </c>
       <c r="G46">
-        <v>202.82499999999999</v>
+        <v>202.934</v>
       </c>
       <c r="H46">
-        <v>0.09</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I46">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J46">
-        <v>5.6300000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K46">
-        <v>8.3000000000000004E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L46" s="3">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M46">
-        <v>4.41E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="N46" t="s">
-        <v>15</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="0"/>
-        <v>6.4565548088744665E-2</v>
+        <v>22</v>
+      </c>
+      <c r="P46" t="e">
+        <f>SQRT((H46^2)-(0.0627^2))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>54.938000000000002</v>
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>55.85</v>
       </c>
       <c r="E47">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F47">
-        <v>202.91300000000001</v>
+        <v>204.70099999999999</v>
       </c>
       <c r="G47">
-        <v>202.934</v>
+        <v>204.70400000000001</v>
       </c>
       <c r="H47">
-        <v>2.8000000000000001E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="I47">
-        <v>0.03</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J47">
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="K47">
-        <v>8.6999999999999994E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L47" s="3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M47">
-        <v>5.21E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="N47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P47" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>15</v>
+      </c>
+      <c r="P47">
+        <f>SQRT((H47^2)-(0.0627^2))</f>
+        <v>3.9302798882522333E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -2839,230 +2839,230 @@
       <c r="C48">
         <v>7</v>
       </c>
-      <c r="D48" s="1">
-        <v>55.85</v>
+      <c r="D48">
+        <v>51.996000000000002</v>
       </c>
       <c r="E48">
         <v>5.8</v>
       </c>
       <c r="F48">
-        <v>204.70099999999999</v>
+        <v>205.03</v>
       </c>
       <c r="G48">
-        <v>204.70400000000001</v>
+        <v>205.01</v>
       </c>
       <c r="H48">
-        <v>7.3999999999999996E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I48">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J48">
-        <v>2.4500000000000001E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="K48">
-        <v>8.2000000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="L48" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M48">
-        <v>4.3099999999999999E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="N48" t="s">
         <v>15</v>
       </c>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
       <c r="P48">
-        <f t="shared" si="0"/>
-        <v>3.9302798882522333E-2</v>
+        <f>SQRT((H48^2)-(0.0627^2))</f>
+        <v>4.6397305956272929E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>51.996000000000002</v>
+        <v>55.85</v>
       </c>
       <c r="E49">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F49">
-        <v>205.03</v>
+        <v>207.44800000000001</v>
       </c>
       <c r="G49">
-        <v>205.01</v>
+        <v>207.44800000000001</v>
       </c>
       <c r="H49">
-        <v>7.8E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I49">
         <v>2E-3</v>
       </c>
       <c r="J49">
-        <v>3.5200000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="K49">
-        <v>0.10100000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L49" s="3">
-        <v>2E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="M49">
-        <v>7.22E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="N49" t="s">
         <v>15</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
-        <v>4.6397305956272929E-2</v>
+        <f>SQRT((H49^2)-(0.0627^2))</f>
+        <v>3.3312310036981811E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>55.85</v>
+        <v>28.0855</v>
       </c>
       <c r="E50">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F50">
-        <v>207.44800000000001</v>
+        <v>245.99199999999999</v>
       </c>
       <c r="G50">
-        <v>207.44800000000001</v>
+        <v>246.00200000000001</v>
       </c>
       <c r="H50">
-        <v>7.0999999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I50">
-        <v>2E-3</v>
-      </c>
-      <c r="J50">
-        <v>1.2999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K50">
-        <v>8.6999999999999994E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="L50" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="M50">
-        <v>5.1499999999999997E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="N50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O50" t="s">
-        <v>39</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="0"/>
-        <v>3.3312310036981811E-2</v>
+        <v>22</v>
+      </c>
+      <c r="P50" t="e">
+        <f>SQRT((H50^2)-(0.0627^2))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>28.0855</v>
+        <v>55.85</v>
       </c>
       <c r="E51">
         <v>5.7</v>
       </c>
       <c r="F51">
-        <v>245.99199999999999</v>
+        <v>248.61</v>
       </c>
       <c r="G51">
-        <v>246.00200000000001</v>
+        <v>248.63499999999999</v>
       </c>
       <c r="H51">
-        <v>0.06</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I51">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K51">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="M51">
-        <v>6.08E-2</v>
+        <v>0.03</v>
       </c>
       <c r="N51" t="s">
         <v>22</v>
       </c>
       <c r="P51" t="e">
-        <f t="shared" si="0"/>
+        <f>SQRT((H51^2)-(0.0627^2))</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>55.85</v>
+        <v>26.981539999999999</v>
       </c>
       <c r="E52">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="F52">
-        <v>248.61</v>
+        <v>250.136</v>
       </c>
       <c r="G52">
-        <v>248.63499999999999</v>
+        <v>250.13399999999999</v>
       </c>
       <c r="H52">
-        <v>4.5999999999999999E-2</v>
+        <v>0.106</v>
       </c>
       <c r="I52">
-        <v>0.03</v>
+        <v>0.02</v>
+      </c>
+      <c r="J52">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="K52">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M52">
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="N52" t="s">
         <v>22</v>
       </c>
-      <c r="P52" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P52">
+        <f>SQRT((H52^2)-(0.0627^2))</f>
+        <v>8.5467596198793364E-2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -3071,41 +3071,44 @@
         <v>7</v>
       </c>
       <c r="D53">
-        <v>26.981539999999999</v>
+        <v>55.85</v>
       </c>
       <c r="E53">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F53">
-        <v>250.136</v>
+        <v>253.947</v>
       </c>
       <c r="G53">
-        <v>250.13399999999999</v>
+        <v>253.95599999999999</v>
       </c>
       <c r="H53">
-        <v>0.106</v>
+        <v>0.08</v>
       </c>
       <c r="I53">
-        <v>0.02</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J53">
-        <v>8.0600000000000005E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="K53">
-        <v>9.4E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L53" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M53">
-        <v>6.2899999999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="N53" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="O53" t="s">
+        <v>43</v>
       </c>
       <c r="P53">
-        <f t="shared" si="0"/>
-        <v>8.5467596198793364E-2</v>
+        <f>SQRT((H53^2)-(0.0627^2))</f>
+        <v>4.9686114760564642E-2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -3113,50 +3116,47 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>55.85</v>
       </c>
       <c r="E54">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F54">
-        <v>253.947</v>
+        <v>254.60400000000001</v>
       </c>
       <c r="G54">
-        <v>253.95599999999999</v>
+        <v>254.596</v>
       </c>
       <c r="H54">
-        <v>0.08</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I54">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J54">
-        <v>3.9600000000000003E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="K54">
-        <v>9.0999999999999998E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="L54" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="M54">
-        <v>5.7500000000000002E-2</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="N54" t="s">
-        <v>11</v>
-      </c>
-      <c r="O54" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="P54">
-        <f t="shared" si="0"/>
-        <v>4.9686114760564642E-2</v>
+        <f>SQRT((H54^2)-(0.0627^2))</f>
+        <v>3.3312310036981811E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3164,47 +3164,44 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>55.85</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F55">
-        <v>254.60400000000001</v>
+        <v>255.101</v>
       </c>
       <c r="G55">
-        <v>254.596</v>
+        <v>255.11</v>
       </c>
       <c r="H55">
-        <v>7.0999999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I55">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J55">
-        <v>1.66E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K55">
-        <v>9.9000000000000005E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L55" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="M55">
-        <v>6.9400000000000003E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="N55" t="s">
         <v>22</v>
       </c>
-      <c r="P55">
-        <f t="shared" si="0"/>
-        <v>3.3312310036981811E-2</v>
+      <c r="P55" t="e">
+        <f>SQRT((H55^2)-(0.0627^2))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -3224,32 +3221,32 @@
         <v>5.8</v>
       </c>
       <c r="F56">
-        <v>255.101</v>
+        <v>255.33</v>
       </c>
       <c r="G56">
-        <v>255.11</v>
+        <v>255.35</v>
       </c>
       <c r="H56">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I56">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K56">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="L56" s="3">
-        <v>4.0000000000000003E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M56">
-        <v>5.7700000000000001E-2</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="N56" t="s">
         <v>22</v>
       </c>
-      <c r="P56" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P56">
+        <f>SQRT((H56^2)-(0.0627^2))</f>
+        <v>1.7137969541342987E-2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3257,44 +3254,44 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>55.85</v>
       </c>
       <c r="E57">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F57">
-        <v>255.33</v>
+        <v>255.405</v>
       </c>
       <c r="G57">
-        <v>255.35</v>
+        <v>255.393</v>
       </c>
       <c r="H57">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I57">
-        <v>8.0000000000000002E-3</v>
+        <v>0.03</v>
       </c>
       <c r="K57">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L57" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="M57">
-        <v>5.8700000000000002E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="N57" t="s">
         <v>22</v>
       </c>
       <c r="P57">
-        <f t="shared" si="0"/>
-        <v>1.7137969541342987E-2</v>
+        <f>SQRT((H57^2)-(0.0627^2))</f>
+        <v>3.1124106412875538E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3302,44 +3299,47 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>55.85</v>
       </c>
       <c r="E58">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F58">
-        <v>255.405</v>
+        <v>255.666</v>
       </c>
       <c r="G58">
-        <v>255.393</v>
+        <v>255.684</v>
       </c>
       <c r="H58">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I58">
         <v>0.03</v>
       </c>
+      <c r="J58">
+        <v>6.4899999999999999E-2</v>
+      </c>
       <c r="K58">
-        <v>0.09</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L58" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="M58">
-        <v>5.67E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="N58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P58">
-        <f t="shared" si="0"/>
-        <v>3.1124106412875538E-2</v>
+        <f>SQRT((H58^2)-(0.0627^2))</f>
+        <v>7.1370231889773206E-2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3347,47 +3347,47 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>55.85</v>
       </c>
       <c r="E59">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F59">
-        <v>255.666</v>
+        <v>256.92</v>
       </c>
       <c r="G59">
-        <v>255.684</v>
+        <v>256.91899999999998</v>
       </c>
       <c r="H59">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I59">
-        <v>0.03</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J59">
-        <v>6.4899999999999999E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="K59">
-        <v>9.0999999999999998E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="L59" s="3">
-        <v>6.0000000000000002E-6</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M59">
-        <v>5.74E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N59" t="s">
         <v>15</v>
       </c>
       <c r="P59">
-        <f t="shared" si="0"/>
-        <v>7.1370231889773206E-2</v>
+        <f>SQRT((H59^2)-(0.0627^2))</f>
+        <v>5.8861787264744163E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3407,83 +3407,86 @@
         <v>6</v>
       </c>
       <c r="F60">
-        <v>256.92</v>
+        <v>257.762</v>
       </c>
       <c r="G60">
-        <v>256.91899999999998</v>
+        <v>257.77199999999999</v>
       </c>
       <c r="H60">
-        <v>8.5999999999999993E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I60">
-        <v>4.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="J60">
-        <v>5.1299999999999998E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="K60">
-        <v>9.9000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L60" s="3">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M60">
-        <v>7.0000000000000007E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="N60" t="s">
         <v>15</v>
       </c>
       <c r="P60">
-        <f t="shared" si="0"/>
-        <v>5.8861787264744163E-2</v>
+        <f>SQRT((H60^2)-(0.0627^2))</f>
+        <v>6.1747145683019214E-2</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>55.85</v>
+        <v>28.0855</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F61">
-        <v>257.762</v>
+        <v>258.08699999999999</v>
       </c>
       <c r="G61">
-        <v>257.77199999999999</v>
+        <v>258.08</v>
       </c>
       <c r="H61">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I61">
         <v>0.02</v>
       </c>
       <c r="J61">
-        <v>5.4600000000000003E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="K61">
-        <v>0.09</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L61" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M61">
-        <v>5.7099999999999998E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="N61" t="s">
         <v>15</v>
       </c>
+      <c r="O61" t="s">
+        <v>46</v>
+      </c>
       <c r="P61">
-        <f t="shared" si="0"/>
-        <v>6.1747145683019214E-2</v>
+        <f>SQRT((H61^2)-(0.0627^2))</f>
+        <v>5.8861787264744163E-2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -3491,55 +3494,52 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>28.0855</v>
       </c>
       <c r="E62">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F62">
-        <v>258.08699999999999</v>
+        <v>258.37099999999998</v>
       </c>
       <c r="G62">
-        <v>258.08</v>
+        <v>258.37400000000002</v>
       </c>
       <c r="H62">
-        <v>8.5999999999999993E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I62">
-        <v>0.02</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J62">
-        <v>5.0299999999999997E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
       <c r="K62">
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="L62" s="3">
-        <v>2E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M62">
-        <v>6.4500000000000002E-2</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="N62" t="s">
-        <v>15</v>
-      </c>
-      <c r="O62" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P62">
-        <f t="shared" si="0"/>
-        <v>5.8861787264744163E-2</v>
+        <f>SQRT((H62^2)-(0.0627^2))</f>
+        <v>6.1747145683019214E-2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -3548,473 +3548,473 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>28.0855</v>
+        <v>32.06</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63">
-        <v>258.37099999999998</v>
+        <v>259.5</v>
       </c>
       <c r="G63">
-        <v>258.37400000000002</v>
+        <v>259.49599999999998</v>
       </c>
       <c r="H63">
-        <v>8.7999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I63">
+        <v>0.01</v>
+      </c>
+      <c r="J63">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.109</v>
+      </c>
+      <c r="L63" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J63">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="K63">
-        <v>0.105</v>
-      </c>
-      <c r="L63" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
       <c r="M63">
-        <v>7.7700000000000005E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="N63" t="s">
         <v>11</v>
       </c>
+      <c r="O63" t="s">
+        <v>47</v>
+      </c>
       <c r="P63">
+        <f>SQRT((H63^2)-(0.0627^2))</f>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>55.85</v>
+      </c>
+      <c r="E64">
+        <v>6.1</v>
+      </c>
+      <c r="F64">
+        <v>259.97000000000003</v>
+      </c>
+      <c r="G64">
+        <v>259.97300000000001</v>
+      </c>
+      <c r="H64">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.02</v>
+      </c>
+      <c r="J64">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.107</v>
+      </c>
+      <c r="L64" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M64">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64">
+        <f>SQRT((H64^2)-(0.0627^2))</f>
+        <v>5.7390852929713465E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>28.0855</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>261.05399999999997</v>
+      </c>
+      <c r="G65">
+        <v>261.05599999999998</v>
+      </c>
+      <c r="H65">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.106</v>
+      </c>
+      <c r="L65" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M65">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <f>SQRT((H65^2)-(0.0627^2))</f>
+        <v>5.7390852929713465E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>32.06</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>264.233</v>
+      </c>
+      <c r="G66">
+        <v>264.23</v>
+      </c>
+      <c r="H66">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I66">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J66">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K66">
+        <v>0.107</v>
+      </c>
+      <c r="L66" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M66">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>11</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P85" si="0">SQRT((H66^2)-(0.0627^2))</f>
+        <v>6.0313431339959415E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>55.85</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>264.77600000000001</v>
+      </c>
+      <c r="G67">
+        <v>264.77199999999999</v>
+      </c>
+      <c r="H67">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I67">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J67">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.11</v>
+      </c>
+      <c r="L67" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M67">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>15</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>5.438483244434978E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>55.85</v>
+      </c>
+      <c r="E68">
+        <v>5.9</v>
+      </c>
+      <c r="F68">
+        <v>266.09199999999998</v>
+      </c>
+      <c r="G68">
+        <v>266.04899999999998</v>
+      </c>
+      <c r="H68">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I68">
+        <v>0.01</v>
+      </c>
+      <c r="J68">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="K68">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M68">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>15</v>
+      </c>
+      <c r="O68" t="s">
+        <v>48</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>6.7325403823519689E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>14.0067</v>
+      </c>
+      <c r="E69">
+        <v>5.3</v>
+      </c>
+      <c r="F69">
+        <v>266.387</v>
+      </c>
+      <c r="G69">
+        <v>266.37900000000002</v>
+      </c>
+      <c r="H69">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I69">
+        <v>0.04</v>
+      </c>
+      <c r="K69">
+        <v>0.107</v>
+      </c>
+      <c r="L69" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M69">
+        <v>8.09E-2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="P69" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>24.305</v>
+      </c>
+      <c r="E70">
+        <v>5.7</v>
+      </c>
+      <c r="F70">
+        <v>268.98200000000003</v>
+      </c>
+      <c r="G70">
+        <v>268.99099999999999</v>
+      </c>
+      <c r="H70">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I70">
+        <v>0.01</v>
+      </c>
+      <c r="J70">
+        <v>5.45E-2</v>
+      </c>
+      <c r="K70">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L70" s="3">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="M70">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>15</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="0"/>
         <v>6.1747145683019214E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71">
         <v>13</v>
       </c>
-      <c r="C64">
+      <c r="D71">
+        <v>55.85</v>
+      </c>
+      <c r="E71">
+        <v>6.2</v>
+      </c>
+      <c r="F71">
+        <v>270.52300000000002</v>
+      </c>
+      <c r="G71">
+        <v>270.52</v>
+      </c>
+      <c r="H71">
+        <v>0.06</v>
+      </c>
+      <c r="I71">
+        <v>0.03</v>
+      </c>
+      <c r="K71">
+        <v>0.107</v>
+      </c>
+      <c r="L71" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M71">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
         <v>9</v>
       </c>
-      <c r="D64">
-        <v>32.06</v>
-      </c>
-      <c r="E64">
+      <c r="D72">
+        <v>28.0855</v>
+      </c>
+      <c r="E72">
         <v>6</v>
       </c>
-      <c r="F64">
-        <v>259.5</v>
-      </c>
-      <c r="G64">
-        <v>259.49599999999998</v>
-      </c>
-      <c r="H64">
+      <c r="F72">
+        <v>271.99200000000002</v>
+      </c>
+      <c r="G72">
+        <v>271.99200000000002</v>
+      </c>
+      <c r="H72">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I64">
-        <v>0.01</v>
-      </c>
-      <c r="J64">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="K64">
-        <v>0.109</v>
-      </c>
-      <c r="L64" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M64">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="N64" t="s">
-        <v>11</v>
-      </c>
-      <c r="O64" t="s">
-        <v>47</v>
-      </c>
-      <c r="P64">
+      <c r="I72">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J72">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K72">
+        <v>0.108</v>
+      </c>
+      <c r="L72" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M72">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>15</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="0"/>
         <v>6.7325403823519689E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>55.85</v>
-      </c>
-      <c r="E65">
-        <v>6.1</v>
-      </c>
-      <c r="F65">
-        <v>259.97000000000003</v>
-      </c>
-      <c r="G65">
-        <v>259.97300000000001</v>
-      </c>
-      <c r="H65">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="I65">
-        <v>0.02</v>
-      </c>
-      <c r="J65">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="K65">
-        <v>0.107</v>
-      </c>
-      <c r="L65" s="3">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M65">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="N65" t="s">
-        <v>15</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="0"/>
-        <v>5.7390852929713465E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66">
-        <v>28.0855</v>
-      </c>
-      <c r="E66">
-        <v>6</v>
-      </c>
-      <c r="F66">
-        <v>261.05399999999997</v>
-      </c>
-      <c r="G66">
-        <v>261.05599999999998</v>
-      </c>
-      <c r="H66">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="I66">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J66">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="K66">
-        <v>0.106</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M66">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="N66" t="s">
-        <v>11</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
-        <v>5.7390852929713465E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>32.06</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-      <c r="F67">
-        <v>264.233</v>
-      </c>
-      <c r="G67">
-        <v>264.23</v>
-      </c>
-      <c r="H67">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="I67">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J67">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="K67">
-        <v>0.107</v>
-      </c>
-      <c r="L67" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="M67">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="N67" t="s">
-        <v>11</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P86" si="1">SQRT((H67^2)-(0.0627^2))</f>
-        <v>6.0313431339959415E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>55.85</v>
-      </c>
-      <c r="E68">
-        <v>6</v>
-      </c>
-      <c r="F68">
-        <v>264.77600000000001</v>
-      </c>
-      <c r="G68">
-        <v>264.77199999999999</v>
-      </c>
-      <c r="H68">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="I68">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J68">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="K68">
-        <v>0.11</v>
-      </c>
-      <c r="L68" s="3">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M68">
-        <v>8.4900000000000003E-2</v>
-      </c>
-      <c r="N68" t="s">
-        <v>15</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="1"/>
-        <v>5.438483244434978E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69">
-        <v>55.85</v>
-      </c>
-      <c r="E69">
-        <v>5.9</v>
-      </c>
-      <c r="F69">
-        <v>266.09199999999998</v>
-      </c>
-      <c r="G69">
-        <v>266.04899999999998</v>
-      </c>
-      <c r="H69">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="I69">
-        <v>0.01</v>
-      </c>
-      <c r="J69">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="K69">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L69" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="M69">
-        <v>6.5299999999999997E-2</v>
-      </c>
-      <c r="N69" t="s">
-        <v>15</v>
-      </c>
-      <c r="O69" t="s">
-        <v>48</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="1"/>
-        <v>6.7325403823519689E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>14.0067</v>
-      </c>
-      <c r="E70">
-        <v>5.3</v>
-      </c>
-      <c r="F70">
-        <v>266.387</v>
-      </c>
-      <c r="G70">
-        <v>266.37900000000002</v>
-      </c>
-      <c r="H70">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="I70">
-        <v>0.04</v>
-      </c>
-      <c r="K70">
-        <v>0.107</v>
-      </c>
-      <c r="L70" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M70">
-        <v>8.09E-2</v>
-      </c>
-      <c r="N70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P70" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>24.305</v>
-      </c>
-      <c r="E71">
-        <v>5.7</v>
-      </c>
-      <c r="F71">
-        <v>268.98200000000003</v>
-      </c>
-      <c r="G71">
-        <v>268.99099999999999</v>
-      </c>
-      <c r="H71">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I71">
-        <v>0.01</v>
-      </c>
-      <c r="J71">
-        <v>5.45E-2</v>
-      </c>
-      <c r="K71">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L71" s="3">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="M71">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="N71" t="s">
-        <v>15</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="1"/>
-        <v>6.1747145683019214E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72">
-        <v>13</v>
-      </c>
-      <c r="D72">
-        <v>55.85</v>
-      </c>
-      <c r="E72">
-        <v>6.2</v>
-      </c>
-      <c r="F72">
-        <v>270.52300000000002</v>
-      </c>
-      <c r="G72">
-        <v>270.52</v>
-      </c>
-      <c r="H72">
-        <v>0.06</v>
-      </c>
-      <c r="I72">
-        <v>0.03</v>
-      </c>
-      <c r="K72">
-        <v>0.107</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M72">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="N72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P72" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -4022,47 +4022,47 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>28.0855</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F73">
-        <v>271.99200000000002</v>
+        <v>272.642</v>
       </c>
       <c r="G73">
-        <v>271.99200000000002</v>
+        <v>272.64699999999999</v>
       </c>
       <c r="H73">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I73">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J73">
-        <v>6.0999999999999999E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="K73">
-        <v>0.108</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L73" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="M73">
-        <v>8.2500000000000004E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="N73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P73">
-        <f t="shared" si="1"/>
-        <v>6.7325403823519689E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5952331270395584E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -4082,19 +4082,19 @@
         <v>5.8</v>
       </c>
       <c r="F74">
-        <v>272.642</v>
+        <v>275.363</v>
       </c>
       <c r="G74">
-        <v>272.64699999999999</v>
+        <v>275.36099999999999</v>
       </c>
       <c r="H74">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I74">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J74">
-        <v>5.9400000000000001E-2</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="K74">
         <v>9.6000000000000002E-2</v>
@@ -4103,206 +4103,200 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="M74">
-        <v>6.5600000000000006E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="N74" t="s">
         <v>11</v>
       </c>
       <c r="P74">
-        <f t="shared" si="1"/>
-        <v>6.5952331270395584E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7325403823519689E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>28.0855</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>5.8</v>
       </c>
-      <c r="F75">
-        <v>275.363</v>
-      </c>
-      <c r="G75">
-        <v>275.36099999999999</v>
-      </c>
-      <c r="H75">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="I75">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J75">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="K75">
+      <c r="F75" s="1">
+        <v>275.678</v>
+      </c>
+      <c r="G75" s="1">
+        <v>275.67500000000001</v>
+      </c>
+      <c r="H75" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J75" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="K75" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="4">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="1">
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="N75" t="s">
         <v>11</v>
       </c>
       <c r="P75">
-        <f t="shared" si="1"/>
-        <v>6.7325403823519689E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.3164151225200513E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>6</v>
       </c>
-      <c r="D76" s="1">
-        <v>28.0855</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="D76">
+        <v>24.305</v>
+      </c>
+      <c r="E76">
         <v>5.8</v>
       </c>
-      <c r="F76" s="1">
-        <v>275.678</v>
-      </c>
-      <c r="G76" s="1">
-        <v>275.67500000000001</v>
-      </c>
-      <c r="H76" s="1">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="I76" s="1">
+      <c r="F76">
+        <v>276.137</v>
+      </c>
+      <c r="G76">
+        <v>276.154</v>
+      </c>
+      <c r="H76">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I76">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J76" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="K76" s="1">
+      <c r="J76">
+        <v>5.91E-2</v>
+      </c>
+      <c r="K76">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L76" s="4">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="M76" s="1">
-        <v>6.6299999999999998E-2</v>
+      <c r="L76" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M76">
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="N76" t="s">
         <v>11</v>
       </c>
       <c r="P76">
-        <f t="shared" si="1"/>
-        <v>6.3164151225200513E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5952331270395584E-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>28.0855</v>
+      </c>
+      <c r="E77">
         <v>6</v>
       </c>
-      <c r="D77">
-        <v>24.305</v>
-      </c>
-      <c r="E77">
-        <v>5.8</v>
-      </c>
       <c r="F77">
-        <v>276.137</v>
+        <v>277.26100000000002</v>
       </c>
       <c r="G77">
-        <v>276.154</v>
+        <v>277.26400000000001</v>
       </c>
       <c r="H77">
-        <v>9.0999999999999998E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I77">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J77">
-        <v>5.91E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="K77">
-        <v>9.6000000000000002E-2</v>
+        <v>0.109</v>
       </c>
       <c r="L77" s="3">
-        <v>1E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M77">
-        <v>6.6199999999999995E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="N77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P77">
-        <f t="shared" si="1"/>
-        <v>6.5952331270395584E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6614032657209744E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C78">
-        <v>9</v>
-      </c>
-      <c r="D78" s="1">
-        <v>28.0855</v>
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>15.9994</v>
       </c>
       <c r="E78">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="F78">
-        <v>277.26100000000002</v>
+        <v>279.63099999999997</v>
       </c>
       <c r="G78">
-        <v>277.26400000000001</v>
+        <v>279.63099999999997</v>
       </c>
       <c r="H78">
-        <v>9.9000000000000005E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I78">
-        <v>6.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="J78">
-        <v>7.0599999999999996E-2</v>
-      </c>
-      <c r="K78">
-        <v>0.109</v>
-      </c>
-      <c r="L78" s="3">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="M78">
-        <v>8.4000000000000005E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="N78" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
       </c>
       <c r="P78">
-        <f t="shared" si="1"/>
-        <v>7.6614032657209744E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0313431339959415E-2</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -4322,19 +4316,19 @@
         <v>5.2</v>
       </c>
       <c r="F79">
-        <v>279.63099999999997</v>
+        <v>279.93099999999998</v>
       </c>
       <c r="G79">
-        <v>279.63099999999997</v>
+        <v>279.93299999999999</v>
       </c>
       <c r="H79">
-        <v>8.6999999999999994E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I79">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="J79">
-        <v>5.3100000000000001E-2</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="N79" t="s">
         <v>22</v>
@@ -4343,146 +4337,152 @@
         <v>53</v>
       </c>
       <c r="P79">
-        <f t="shared" si="1"/>
-        <v>6.0313431339959415E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6614032657209744E-2</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D80">
-        <v>15.9994</v>
+        <v>26.981539999999999</v>
       </c>
       <c r="E80">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="F80">
-        <v>279.93099999999998</v>
+        <v>280.13200000000001</v>
       </c>
       <c r="G80">
-        <v>279.93299999999999</v>
+        <v>280.15100000000001</v>
       </c>
       <c r="H80">
-        <v>9.9000000000000005E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I80">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J80">
-        <v>7.0599999999999996E-2</v>
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="K80">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L80" s="3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="M80">
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
-      <c r="O80" t="s">
-        <v>53</v>
-      </c>
       <c r="P80">
-        <f t="shared" si="1"/>
-        <v>7.6614032657209744E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.3312310036981811E-2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>26.981539999999999</v>
+        <v>24.305</v>
       </c>
       <c r="E81">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F81">
-        <v>280.13200000000001</v>
+        <v>280.72699999999998</v>
       </c>
       <c r="G81">
-        <v>280.15100000000001</v>
+        <v>280.74200000000002</v>
       </c>
       <c r="H81">
-        <v>7.0999999999999994E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I81">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J81">
-        <v>1.3899999999999999E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="K81">
-        <v>0.10199999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="L81" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="M81">
-        <v>7.4099999999999999E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="N81" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P81">
-        <f t="shared" si="1"/>
-        <v>3.3312310036981811E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6397305956272929E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82">
-        <v>24.305</v>
+        <v>26.981539999999999</v>
       </c>
       <c r="E82">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F82">
-        <v>280.72699999999998</v>
+        <v>282.41500000000002</v>
       </c>
       <c r="G82">
-        <v>280.74200000000002</v>
+        <v>282.42200000000003</v>
       </c>
       <c r="H82">
-        <v>7.8E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I82">
-        <v>7.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="J82">
-        <v>3.6200000000000003E-2</v>
+        <v>6.2899999999999998E-2</v>
       </c>
       <c r="K82">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="L82" s="3">
-        <v>7.9999999999999996E-6</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="M82">
-        <v>6.7599999999999993E-2</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="N82" t="s">
         <v>15</v>
       </c>
       <c r="P82">
-        <f t="shared" si="1"/>
-        <v>4.6397305956272929E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.8685588007965689E-2</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -4502,175 +4502,127 @@
         <v>5.9</v>
       </c>
       <c r="F83">
-        <v>282.41500000000002</v>
+        <v>284.03199999999998</v>
       </c>
       <c r="G83">
-        <v>282.42200000000003</v>
+        <v>284.04199999999997</v>
       </c>
       <c r="H83">
-        <v>9.2999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I83">
-        <v>0.02</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J83">
-        <v>6.2899999999999998E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="K83">
-        <v>0.10299999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="L83" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="M83">
-        <v>7.5499999999999998E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="N83" t="s">
         <v>15</v>
       </c>
       <c r="P83">
-        <f t="shared" si="1"/>
-        <v>6.8685588007965689E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5952331270395584E-2</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84">
         <v>14</v>
       </c>
-      <c r="C84">
-        <v>8</v>
-      </c>
       <c r="D84">
-        <v>26.981539999999999</v>
+        <v>55.85</v>
       </c>
       <c r="E84">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="F84">
-        <v>284.03199999999998</v>
+        <v>284.161</v>
       </c>
       <c r="G84">
-        <v>284.04199999999997</v>
+        <v>284.16300000000001</v>
       </c>
       <c r="H84">
-        <v>9.0999999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="I84">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J84">
-        <v>5.9400000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K84">
-        <v>0.113</v>
+        <v>9.4E-2</v>
       </c>
       <c r="L84" s="3">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M84">
-        <v>8.8200000000000001E-2</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="N84" t="s">
-        <v>15</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="1"/>
-        <v>6.5952331270395584E-2</v>
+        <v>22</v>
+      </c>
+      <c r="O84" t="s">
+        <v>55</v>
+      </c>
+      <c r="P84" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>55.85</v>
+        <v>28.0855</v>
       </c>
       <c r="E85">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="F85">
-        <v>284.161</v>
+        <v>290.70600000000002</v>
       </c>
       <c r="G85">
-        <v>284.16300000000001</v>
+        <v>290.68700000000001</v>
       </c>
       <c r="H85">
-        <v>5.6000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I85">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K85">
-        <v>9.4E-2</v>
+        <v>0.108</v>
       </c>
       <c r="L85" s="3">
-        <v>2E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M85">
-        <v>6.2300000000000001E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="N85" t="s">
         <v>22</v>
       </c>
-      <c r="O85" t="s">
-        <v>55</v>
-      </c>
-      <c r="P85" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>41</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>28.0855</v>
-      </c>
-      <c r="E86">
-        <v>5.9</v>
-      </c>
-      <c r="F86">
-        <v>290.70600000000002</v>
-      </c>
-      <c r="G86">
-        <v>290.68700000000001</v>
-      </c>
-      <c r="H86">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I86">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="K86">
-        <v>0.108</v>
-      </c>
-      <c r="L86" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="M86">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="N86" t="s">
-        <v>22</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="1"/>
+      <c r="P85">
+        <f t="shared" si="0"/>
         <v>3.1124106412875538E-2</v>
       </c>
     </row>
@@ -4681,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02149022-7C1E-734A-A269-E036E35CA0BA}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4967,33 +4919,33 @@
         <v>5.8</v>
       </c>
       <c r="F9">
-        <v>188.64599999999999</v>
+        <v>188.49</v>
       </c>
       <c r="G9">
-        <v>188.68100000000001</v>
+        <v>188.49299999999999</v>
       </c>
       <c r="H9">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="I9">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5.5E-2</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J9">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="K9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M9">
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -5001,25 +4953,26 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>55.85</v>
+      <c r="D10">
+        <v>54.938000000000002</v>
       </c>
       <c r="E10">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G10">
-        <v>188.75700000000001</v>
-      </c>
+        <v>188.48</v>
+      </c>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>55.85</v>
@@ -5028,28 +4981,28 @@
         <v>5.8</v>
       </c>
       <c r="F11">
-        <v>192.00399999999999</v>
+        <v>188.64599999999999</v>
       </c>
       <c r="G11">
-        <v>192.00399999999999</v>
+        <v>188.68100000000001</v>
       </c>
       <c r="H11">
-        <v>7.6999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J11">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="K11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K11" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="L11">
-        <v>1E-3</v>
-      </c>
-      <c r="M11">
-        <v>5.57E-2</v>
+      <c r="L11" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -5057,19 +5010,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>55.85</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G12">
-        <v>192.02099999999999</v>
+        <v>188.75700000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -5077,80 +5030,101 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>55.85</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F13">
-        <v>192.80600000000001</v>
+        <v>192.00399999999999</v>
       </c>
       <c r="G13">
-        <v>192.81299999999999</v>
+        <v>192.00399999999999</v>
       </c>
       <c r="H13">
-        <v>9.2999999999999999E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I13">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J13">
-        <v>6.2199999999999998E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="K13">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="L13">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M13">
-        <v>5.33E-2</v>
+        <v>5.57E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>15.9994</v>
+        <v>55.85</v>
       </c>
       <c r="E14">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>192.797</v>
+        <v>192.02099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>15.9994</v>
+        <v>55.85</v>
       </c>
       <c r="E15">
-        <v>5.4</v>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>192.80600000000001</v>
       </c>
       <c r="G15">
-        <v>192.80099999999999</v>
+        <v>192.81299999999999</v>
+      </c>
+      <c r="H15">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>2E-3</v>
+      </c>
+      <c r="J15">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="K15">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L15">
+        <v>1E-4</v>
+      </c>
+      <c r="M15">
+        <v>5.33E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -5169,26 +5143,11 @@
       <c r="E16">
         <v>5.4</v>
       </c>
-      <c r="F16">
-        <v>192.90600000000001</v>
-      </c>
       <c r="G16">
-        <v>192.904</v>
-      </c>
-      <c r="H16">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="I16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>192.797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5205,10 +5164,10 @@
         <v>5.4</v>
       </c>
       <c r="G17">
-        <v>192.911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>192.80099999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5224,240 +5183,234 @@
       <c r="E18">
         <v>5.4</v>
       </c>
+      <c r="F18">
+        <v>192.90600000000001</v>
+      </c>
       <c r="G18">
+        <v>192.904</v>
+      </c>
+      <c r="H18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15.9994</v>
+      </c>
+      <c r="E19">
+        <v>5.4</v>
+      </c>
+      <c r="G19">
+        <v>192.911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15.9994</v>
+      </c>
+      <c r="E20">
+        <v>5.4</v>
+      </c>
+      <c r="G20">
         <v>192.91499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>11</v>
       </c>
-      <c r="D19" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E19">
+      <c r="D21" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E21">
         <v>6.1</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>195.12</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>195.119</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>1E-3</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>11</v>
       </c>
-      <c r="D20" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E20">
+      <c r="D22" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E22">
         <v>6.1</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>195.18</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>195.179</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>1E-3</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>9</v>
       </c>
-      <c r="D21" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E21">
+      <c r="D23" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E23">
         <v>5.9</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>195.392</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>195.38900000000001</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I21">
-        <v>2E-3</v>
-      </c>
-      <c r="J21">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="K21">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="L21">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M21">
-        <v>4.5400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E22">
-        <v>5.7</v>
-      </c>
-      <c r="G22">
-        <v>195.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E23">
-        <v>6.1</v>
-      </c>
-      <c r="F23">
-        <v>196.655</v>
-      </c>
-      <c r="G23">
-        <v>196.64</v>
-      </c>
-      <c r="H23">
-        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I23">
         <v>2E-3</v>
       </c>
       <c r="J23">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="K23">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L23">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M23">
+        <v>4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E24">
+        <v>5.7</v>
+      </c>
+      <c r="G24">
+        <v>195.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E25">
+        <v>6.1</v>
+      </c>
+      <c r="F25">
+        <v>196.655</v>
+      </c>
+      <c r="G25">
+        <v>196.64</v>
+      </c>
+      <c r="H25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I25">
+        <v>2E-3</v>
+      </c>
+      <c r="J25">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="L23">
+      <c r="L25">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <v>4.99E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E24">
-        <v>5.8</v>
-      </c>
-      <c r="G24">
-        <v>196.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>198.554</v>
-      </c>
-      <c r="G25">
-        <v>198.53800000000001</v>
-      </c>
-      <c r="H25">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="I25">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="J25">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="K25">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="M25">
-        <v>5.2900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -5466,118 +5419,118 @@
         <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>32.06</v>
+        <v>55.85</v>
       </c>
       <c r="E26">
         <v>5.8</v>
       </c>
       <c r="G26">
+        <v>196.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>198.554</v>
+      </c>
+      <c r="G27">
+        <v>198.53800000000001</v>
+      </c>
+      <c r="H27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I27">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J27">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="M27">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>32.06</v>
+      </c>
+      <c r="E28">
+        <v>5.8</v>
+      </c>
+      <c r="G28">
         <v>198.553</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>8</v>
       </c>
-      <c r="D27" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E27">
+      <c r="D29" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E29">
         <v>5.8</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>199.98500000000001</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>199.97499999999999</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <v>0.111</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J27">
+      <c r="J29">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <v>0.11700000000000001</v>
       </c>
-      <c r="L27">
+      <c r="L29">
         <v>1E-3</v>
       </c>
-      <c r="M27">
+      <c r="M29">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E28">
-        <v>6.1</v>
-      </c>
-      <c r="G28">
-        <v>200.02099999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>201.101</v>
-      </c>
-      <c r="G29">
-        <v>201.11199999999999</v>
-      </c>
-      <c r="H29">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="I29">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J29">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="K29">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="L29">
-        <v>1E-4</v>
-      </c>
-      <c r="M29">
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5594,109 +5547,109 @@
         <v>6.1</v>
       </c>
       <c r="G30">
+        <v>200.02099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>201.101</v>
+      </c>
+      <c r="G31">
+        <v>201.11199999999999</v>
+      </c>
+      <c r="H31">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="K31">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L31">
+        <v>1E-4</v>
+      </c>
+      <c r="M31">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E32">
+        <v>6.1</v>
+      </c>
+      <c r="G32">
         <v>201.126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>40.08</v>
-      </c>
-      <c r="E31">
-        <v>5.8</v>
-      </c>
-      <c r="F31">
-        <v>201.86600000000001</v>
-      </c>
-      <c r="G31">
-        <v>201.84700000000001</v>
-      </c>
-      <c r="H31">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="I31">
-        <v>0.03</v>
-      </c>
-      <c r="J31">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="K31">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="L31">
-        <v>0.01</v>
-      </c>
-      <c r="M31">
-        <v>2.3199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>55.85</v>
-      </c>
-      <c r="E32">
-        <v>5.7</v>
-      </c>
-      <c r="G32">
-        <v>201.85599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1">
-        <v>32.06</v>
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>40.08</v>
       </c>
       <c r="E33">
         <v>5.8</v>
       </c>
       <c r="F33">
-        <v>202.61099999999999</v>
+        <v>201.86600000000001</v>
       </c>
       <c r="G33">
-        <v>202.61</v>
+        <v>201.84700000000001</v>
       </c>
       <c r="H33">
-        <v>8.5999999999999993E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="I33">
-        <v>1E-3</v>
+        <v>0.03</v>
       </c>
       <c r="J33">
-        <v>5.0500000000000003E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="K33">
-        <v>8.6999999999999994E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="L33">
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="M33">
-        <v>5.1400000000000001E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -5704,60 +5657,60 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <v>55.85</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G34">
-        <v>202.60900000000001</v>
+        <v>201.85599999999999</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1">
-        <v>55.85</v>
+        <v>32.06</v>
       </c>
       <c r="E35">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F35">
-        <v>203.73500000000001</v>
+        <v>202.61099999999999</v>
       </c>
       <c r="G35">
-        <v>203.72800000000001</v>
+        <v>202.61</v>
       </c>
       <c r="H35">
-        <v>9.7000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I35">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J35">
-        <v>6.7500000000000004E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="K35">
-        <v>0.104</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L35">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="M35">
-        <v>7.7299999999999994E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -5765,19 +5718,19 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>55.85</v>
       </c>
       <c r="E36">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>203.79499999999999</v>
+        <v>202.60900000000001</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -5785,10 +5738,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
         <v>55.85</v>
@@ -5797,10 +5750,10 @@
         <v>6.1</v>
       </c>
       <c r="F37">
-        <v>203.822</v>
+        <v>203.73500000000001</v>
       </c>
       <c r="G37">
-        <v>203.82599999999999</v>
+        <v>203.72800000000001</v>
       </c>
       <c r="H37">
         <v>9.7000000000000003E-2</v>
@@ -5812,13 +5765,13 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="K37">
-        <v>9.8000000000000004E-2</v>
+        <v>0.104</v>
       </c>
       <c r="L37">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M37">
-        <v>6.8400000000000002E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -5826,40 +5779,19 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>55.85</v>
       </c>
       <c r="E38">
-        <v>5.8</v>
-      </c>
-      <c r="F38">
-        <v>207.11799999999999</v>
+        <v>6.1</v>
       </c>
       <c r="G38">
-        <v>207.124</v>
-      </c>
-      <c r="H38">
-        <v>0.104</v>
-      </c>
-      <c r="I38">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J38">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="K38">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="L38">
-        <v>1E-4</v>
-      </c>
-      <c r="M38">
-        <v>5.0900000000000001E-2</v>
+        <v>203.79499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -5867,183 +5799,207 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
         <v>55.85</v>
       </c>
       <c r="E39">
-        <v>5.8</v>
+        <v>6.1</v>
+      </c>
+      <c r="F39">
+        <v>203.822</v>
       </c>
       <c r="G39">
-        <v>207.124</v>
+        <v>203.82599999999999</v>
+      </c>
+      <c r="H39">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I39">
+        <v>0.01</v>
+      </c>
+      <c r="J39">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K39">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L39">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M39">
+        <v>6.8400000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>54.938000000000002</v>
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>55.85</v>
       </c>
       <c r="E40">
-        <v>5.9</v>
+        <v>5.8</v>
+      </c>
+      <c r="F40">
+        <v>207.11799999999999</v>
       </c>
       <c r="G40">
-        <v>207.148</v>
+        <v>207.124</v>
+      </c>
+      <c r="H40">
+        <v>0.104</v>
+      </c>
+      <c r="I40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J40">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="K40">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L40">
+        <v>1E-4</v>
+      </c>
+      <c r="M40">
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1">
-        <v>15.9994</v>
+        <v>55.85</v>
       </c>
       <c r="E41">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="G41">
-        <v>207.239</v>
+        <v>207.124</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>55.85</v>
+        <v>54.938000000000002</v>
       </c>
       <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>207.76499999999999</v>
+        <v>5.9</v>
       </c>
       <c r="G42">
-        <v>207.751</v>
-      </c>
-      <c r="H42">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="I42">
-        <v>0.02</v>
-      </c>
-      <c r="J42">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="K42">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L42">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M42">
-        <v>6.4100000000000004E-2</v>
+        <v>207.148</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1">
-        <v>55.85</v>
+        <v>15.9994</v>
       </c>
       <c r="E43">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="G43">
-        <v>207.71199999999999</v>
+        <v>207.239</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>55.85</v>
       </c>
       <c r="E44">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>207.93299999999999</v>
+        <v>207.76499999999999</v>
       </c>
       <c r="G44">
-        <v>207.91499999999999</v>
+        <v>207.751</v>
       </c>
       <c r="H44">
-        <v>7.0000000000000007E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I44">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
+      </c>
+      <c r="J44">
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="K44">
-        <v>8.6999999999999994E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L44">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M44">
-        <v>5.2299999999999999E-2</v>
+        <v>6.4100000000000004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
-        <v>58.7</v>
+        <v>55.85</v>
       </c>
       <c r="E45">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="G45">
-        <v>207.922</v>
+        <v>207.71199999999999</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -6052,39 +6008,36 @@
         <v>7</v>
       </c>
       <c r="D46">
-        <v>26.981539999999999</v>
+        <v>55.85</v>
       </c>
       <c r="E46">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F46">
-        <v>247.39699999999999</v>
+        <v>207.93299999999999</v>
       </c>
       <c r="G46">
-        <v>247.40199999999999</v>
+        <v>207.91499999999999</v>
       </c>
       <c r="H46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K46">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I46">
-        <v>0.01</v>
-      </c>
-      <c r="J46">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K46">
-        <v>9.1999999999999998E-2</v>
-      </c>
       <c r="L46">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M46">
-        <v>6.0400000000000002E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -6093,13 +6046,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>55.85</v>
+        <v>58.7</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G47">
-        <v>247.291</v>
+        <v>207.922</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -6119,184 +6072,205 @@
         <v>5.9</v>
       </c>
       <c r="F48">
+        <v>247.39699999999999</v>
+      </c>
+      <c r="G48">
+        <v>247.40199999999999</v>
+      </c>
+      <c r="H48">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I48">
+        <v>0.01</v>
+      </c>
+      <c r="J48">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K48">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M48">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>247.291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>26.981539999999999</v>
+      </c>
+      <c r="E50">
+        <v>5.9</v>
+      </c>
+      <c r="F50">
         <v>248.458</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>248.453</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="I48">
+      <c r="I50">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J48">
+      <c r="J50">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="K48">
+      <c r="K50">
         <v>0.105</v>
       </c>
-      <c r="L48">
+      <c r="L50">
         <v>1E-3</v>
       </c>
-      <c r="M48">
+      <c r="M50">
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>17</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>4</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D51" s="1">
         <v>15.9994</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <v>5.4</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <v>248.453</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>4.0026000000000002</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>256.31599999999997</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>256.31700000000001</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>0.125</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J50">
+      <c r="J52">
         <v>0.105</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>45</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>4.0026000000000002</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>256.31799999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>41</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>9</v>
       </c>
-      <c r="D52">
+      <c r="D54">
         <v>28.0855</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <v>6</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <v>256.42399999999998</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <v>256.37700000000001</v>
       </c>
-      <c r="H52">
+      <c r="H54">
         <v>0.108</v>
       </c>
-      <c r="I52">
+      <c r="I54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J52">
+      <c r="J54">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="K52">
+      <c r="K54">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L52">
+      <c r="L54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M52">
+      <c r="M54">
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>55.85</v>
-      </c>
-      <c r="E53">
-        <v>5.9</v>
-      </c>
-      <c r="G53">
-        <v>256.39800000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54">
-        <v>11</v>
-      </c>
-      <c r="D54">
-        <v>55.85</v>
-      </c>
-      <c r="E54">
-        <v>6.1</v>
-      </c>
-      <c r="G54">
-        <v>256.41000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -6312,113 +6286,92 @@
       <c r="E55">
         <v>5.9</v>
       </c>
-      <c r="F55">
+      <c r="G55">
+        <v>256.39800000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>55.85</v>
+      </c>
+      <c r="E56">
+        <v>6.1</v>
+      </c>
+      <c r="G56">
+        <v>256.41000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>55.85</v>
+      </c>
+      <c r="E57">
+        <v>5.9</v>
+      </c>
+      <c r="F57">
         <v>257.25900000000001</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <v>257.25900000000001</v>
       </c>
-      <c r="H55">
+      <c r="H57">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I55">
+      <c r="I57">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="J55">
+      <c r="J57">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="K55">
+      <c r="K57">
         <v>9.4E-2</v>
       </c>
-      <c r="L55">
+      <c r="L57">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M55">
+      <c r="M57">
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>9</v>
       </c>
-      <c r="D56">
-        <v>55.85</v>
-      </c>
-      <c r="E56">
+      <c r="D58">
+        <v>55.85</v>
+      </c>
+      <c r="E58">
         <v>5.9</v>
       </c>
-      <c r="G56">
+      <c r="G58">
         <v>257.26100000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>55.85</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57">
-        <v>257.53899999999999</v>
-      </c>
-      <c r="G57">
-        <v>257.54700000000003</v>
-      </c>
-      <c r="H57">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I57">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J57">
-        <v>6.5199999999999994E-2</v>
-      </c>
-      <c r="K57">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L57">
-        <v>2E-3</v>
-      </c>
-      <c r="M57">
-        <v>6.4100000000000004E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>55.85</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="G58">
-        <v>257.55399999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -6435,31 +6388,31 @@
         <v>6</v>
       </c>
       <c r="F59">
-        <v>266.60300000000001</v>
+        <v>257.53899999999999</v>
       </c>
       <c r="G59">
-        <v>266.58600000000001</v>
+        <v>257.54700000000003</v>
       </c>
       <c r="H59">
-        <v>7.0999999999999994E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I59">
-        <v>0.04</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J59">
-        <v>1.5100000000000001E-2</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="K59">
-        <v>0.111</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L59">
-        <v>2.9999999999999997E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="M59">
-        <v>8.6400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6.4100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6476,135 +6429,132 @@
         <v>6</v>
       </c>
       <c r="G60">
+        <v>257.55399999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>55.85</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>266.60300000000001</v>
+      </c>
+      <c r="G61">
+        <v>266.58600000000001</v>
+      </c>
+      <c r="H61">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.04</v>
+      </c>
+      <c r="J61">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="K61">
+        <v>0.111</v>
+      </c>
+      <c r="L61">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M61">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>55.85</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="G62">
         <v>266.625</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>50</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>18</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>5</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D63" s="1">
         <v>24.305</v>
       </c>
-      <c r="E61">
+      <c r="E63">
         <v>5.7</v>
       </c>
-      <c r="F61">
+      <c r="F63">
         <v>270.38400000000001</v>
       </c>
-      <c r="G61">
+      <c r="G63">
         <v>270.39</v>
       </c>
-      <c r="H61">
+      <c r="H63">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I61">
+      <c r="I63">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J61">
+      <c r="J63">
         <v>5.33E-2</v>
       </c>
-      <c r="K61">
+      <c r="K63">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L61">
+      <c r="L63">
         <v>1E-3</v>
       </c>
-      <c r="M61">
+      <c r="M63">
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>50</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>18</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>5</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D64" s="1">
         <v>24.305</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <v>5.7</v>
       </c>
-      <c r="G62">
+      <c r="G64">
         <v>270.39999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>28.0855</v>
-      </c>
-      <c r="E63">
-        <v>5.8</v>
-      </c>
-      <c r="F63">
-        <v>274.18700000000001</v>
-      </c>
-      <c r="G63">
-        <v>274.18</v>
-      </c>
-      <c r="H63">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I63">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J63">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K63">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="L63">
-        <v>2E-3</v>
-      </c>
-      <c r="M63">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="N63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64">
-        <v>13</v>
-      </c>
-      <c r="D64">
-        <v>55.85</v>
-      </c>
-      <c r="E64">
-        <v>6.2</v>
-      </c>
-      <c r="G64">
-        <v>274.20299999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -6621,112 +6571,115 @@
         <v>5.8</v>
       </c>
       <c r="F65">
-        <v>276.85199999999998</v>
+        <v>274.18700000000001</v>
       </c>
       <c r="G65">
-        <v>276.85000000000002</v>
+        <v>274.18</v>
       </c>
       <c r="H65">
-        <v>9.1999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I65">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J65">
-        <v>6.1100000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K65">
-        <v>9.7000000000000003E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="L65">
-        <v>2.9999999999999997E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="M65">
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66" s="1">
-        <v>28.0855</v>
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>55.85</v>
       </c>
       <c r="E66">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="G66">
-        <v>276.85000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>274.20299999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>28.0855</v>
+      </c>
+      <c r="E67">
+        <v>5.8</v>
+      </c>
+      <c r="F67">
+        <v>276.85199999999998</v>
+      </c>
+      <c r="G67">
+        <v>276.85000000000002</v>
+      </c>
+      <c r="H67">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I67">
+        <v>1E-3</v>
+      </c>
+      <c r="J67">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="K67">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L67">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M67">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
         <v>20</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>7</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D68" s="1">
         <v>28.0855</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>5.9</v>
       </c>
-      <c r="G67">
-        <v>276.86500000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1">
-        <v>24.305</v>
-      </c>
-      <c r="E68">
-        <v>5.8</v>
-      </c>
-      <c r="F68">
-        <v>276.983</v>
-      </c>
       <c r="G68">
-        <v>277.00099999999998</v>
-      </c>
-      <c r="H68">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I68">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J68">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="K68">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="L68">
-        <v>2E-3</v>
-      </c>
-      <c r="M68">
-        <v>6.88E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>276.85000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -6742,109 +6695,170 @@
       <c r="E69">
         <v>5.9</v>
       </c>
-      <c r="F69">
+      <c r="G69">
+        <v>276.86500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>24.305</v>
+      </c>
+      <c r="E70">
+        <v>5.8</v>
+      </c>
+      <c r="F70">
+        <v>276.983</v>
+      </c>
+      <c r="G70">
+        <v>277.00099999999998</v>
+      </c>
+      <c r="H70">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I70">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J70">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="K70">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L70">
+        <v>2E-3</v>
+      </c>
+      <c r="M70">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>28.0855</v>
+      </c>
+      <c r="E71">
+        <v>5.9</v>
+      </c>
+      <c r="F71">
         <v>277.05200000000002</v>
       </c>
-      <c r="G69">
+      <c r="G71">
         <v>277.04199999999997</v>
       </c>
-      <c r="H69">
+      <c r="H71">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I69">
+      <c r="I71">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J69">
+      <c r="J71">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K69">
+      <c r="K71">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L69">
+      <c r="L71">
         <v>2E-3</v>
       </c>
-      <c r="M69">
+      <c r="M71">
         <v>6.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1">
-        <v>28.0855</v>
-      </c>
-      <c r="E70">
-        <v>5.9</v>
-      </c>
-      <c r="G70">
-        <v>277.05700000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71" s="1">
-        <v>24.305</v>
-      </c>
-      <c r="E71">
-        <v>5.8</v>
-      </c>
-      <c r="F71">
-        <v>278.40499999999997</v>
-      </c>
-      <c r="G71">
-        <v>278.404</v>
-      </c>
-      <c r="H71">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="I71">
-        <v>2E-3</v>
-      </c>
-      <c r="J71">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="K71">
-        <v>0.111</v>
-      </c>
-      <c r="L71">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="M71">
-        <v>8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1">
         <v>28.0855</v>
       </c>
       <c r="E72">
+        <v>5.9</v>
+      </c>
+      <c r="G72">
+        <v>277.05700000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1">
+        <v>24.305</v>
+      </c>
+      <c r="E73">
         <v>5.8</v>
       </c>
-      <c r="G72">
+      <c r="F73">
+        <v>278.40499999999997</v>
+      </c>
+      <c r="G73">
+        <v>278.404</v>
+      </c>
+      <c r="H73">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I73">
+        <v>2E-3</v>
+      </c>
+      <c r="J73">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.111</v>
+      </c>
+      <c r="L73">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M73">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>28.0855</v>
+      </c>
+      <c r="E74">
+        <v>5.8</v>
+      </c>
+      <c r="G74">
         <v>278.44900000000001</v>
       </c>
     </row>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8E9106-3D8C-3E4F-A007-B821E5E97633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4F011-21D0-7A42-B600-1DFDBBB3C9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,6 +586,7 @@
     <col min="11" max="11" width="17.83203125" customWidth="1"/>
     <col min="12" max="12" width="16.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.1640625" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,10 +663,10 @@
         <v>174.53100000000001</v>
       </c>
       <c r="H2">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9399999999999998E-2</v>
       </c>
       <c r="I2">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J2">
         <v>3.7999999999999999E-2</v>
@@ -684,7 +685,7 @@
       </c>
       <c r="P2">
         <f>SQRT((H2^2)-(0.0627^2))</f>
-        <v>4.8059442360476878E-2</v>
+        <v>4.871416631740709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -710,10 +711,10 @@
         <v>176.94499999999999</v>
       </c>
       <c r="H3">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="K3">
         <v>8.1000000000000003E-2</v>
@@ -729,7 +730,7 @@
       </c>
       <c r="P3">
         <f>SQRT((H3^2)-(0.0627^2))</f>
-        <v>1.7137969541342987E-2</v>
+        <v>1.6754700832900569E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -755,10 +756,10 @@
         <v>177.24</v>
       </c>
       <c r="H4">
-        <v>8.1000000000000003E-2</v>
+        <v>8.0780000000000005E-2</v>
       </c>
       <c r="I4">
-        <v>5.9999999999999995E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="J4">
         <v>4.07E-2</v>
@@ -777,7 +778,7 @@
       </c>
       <c r="P4">
         <f>SQRT((H4^2)-(0.0627^2))</f>
-        <v>5.1280698123173006E-2</v>
+        <v>5.0932488649191296E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -803,10 +804,10 @@
         <v>182.167</v>
       </c>
       <c r="H5">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="I5">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="J5">
         <v>3.8100000000000002E-2</v>
@@ -825,7 +826,7 @@
       </c>
       <c r="P5">
         <f>SQRT((H5^2)-(0.0627^2))</f>
-        <v>4.8059442360476878E-2</v>
+        <v>4.8876988450599124E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -851,10 +852,10 @@
         <v>182.30699999999999</v>
       </c>
       <c r="H6">
-        <v>8.6999999999999994E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="I6">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="J6">
         <v>5.1700000000000003E-2</v>
@@ -873,7 +874,7 @@
       </c>
       <c r="P6">
         <f>SQRT((H6^2)-(0.0627^2))</f>
-        <v>6.0313431339959415E-2</v>
+        <v>6.0024578299226722E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -899,10 +900,10 @@
         <v>183.93700000000001</v>
       </c>
       <c r="H7">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="I7">
-        <v>6.0000000000000001E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J7">
         <v>6.0199999999999997E-2</v>
@@ -921,7 +922,7 @@
       </c>
       <c r="P7">
         <f>SQRT((H7^2)-(0.0627^2))</f>
-        <v>6.7325403823519689E-2</v>
+        <v>6.7461989297677855E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -947,10 +948,10 @@
         <v>184.11699999999999</v>
       </c>
       <c r="H8">
-        <v>8.1000000000000003E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="I8">
-        <v>1E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="J8">
         <v>4.2099999999999999E-2</v>
@@ -969,7 +970,7 @@
       </c>
       <c r="P8">
         <f>SQRT((H8^2)-(0.0627^2))</f>
-        <v>5.1280698123173006E-2</v>
+        <v>5.1910210941586432E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -995,10 +996,10 @@
         <v>184.53700000000001</v>
       </c>
       <c r="H9">
-        <v>7.8E-2</v>
+        <v>7.8280000000000002E-2</v>
       </c>
       <c r="I9">
-        <v>5.0000000000000001E-4</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="J9">
         <v>3.56E-2</v>
@@ -1017,7 +1018,7 @@
       </c>
       <c r="P9">
         <f>SQRT((H9^2)-(0.0627^2))</f>
-        <v>4.6397305956272929E-2</v>
+        <v>4.686649549518291E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1043,10 +1044,10 @@
         <v>185.21299999999999</v>
       </c>
       <c r="H10">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6480000000000006E-2</v>
       </c>
       <c r="I10">
-        <v>4.0000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="J10">
         <v>3.1399999999999997E-2</v>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="P10">
         <f>SQRT((H10^2)-(0.0627^2))</f>
-        <v>4.2950087310737788E-2</v>
+        <v>4.3793839749444216E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1091,10 +1092,10 @@
         <v>185.46299999999999</v>
       </c>
       <c r="H11">
-        <v>8.3000000000000004E-2</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="I11">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="J11">
         <v>4.4699999999999997E-2</v>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="P11">
         <f>SQRT((H11^2)-(0.0627^2))</f>
-        <v>5.438483244434978E-2</v>
+        <v>5.4079108720466167E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1142,10 +1143,10 @@
         <v>186.59800000000001</v>
       </c>
       <c r="H12">
-        <v>0.08</v>
+        <v>7.9810000000000006E-2</v>
       </c>
       <c r="I12">
-        <v>6.9999999999999999E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="J12">
         <v>3.8800000000000001E-2</v>
@@ -1164,7 +1165,7 @@
       </c>
       <c r="P12">
         <f>SQRT((H12^2)-(0.0627^2))</f>
-        <v>4.9686114760564642E-2</v>
+        <v>4.9379612189647669E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1190,10 +1191,10 @@
         <v>187.24</v>
       </c>
       <c r="H13">
-        <v>9.8000000000000004E-2</v>
+        <v>9.74E-2</v>
       </c>
       <c r="I13">
-        <v>5.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J13">
         <v>6.83E-2</v>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="P13">
         <f>SQRT((H13^2)-(0.0627^2))</f>
-        <v>7.531739506913393E-2</v>
+        <v>7.4535025323669138E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1238,10 +1239,10 @@
         <v>188.21600000000001</v>
       </c>
       <c r="H14">
-        <v>0.08</v>
+        <v>8.0339999999999995E-2</v>
       </c>
       <c r="I14">
-        <v>2.9999999999999997E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="J14">
         <v>3.9E-2</v>
@@ -1260,7 +1261,7 @@
       </c>
       <c r="P14">
         <f>SQRT((H14^2)-(0.0627^2))</f>
-        <v>4.9686114760564642E-2</v>
+        <v>5.0231719062759528E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1286,10 +1287,10 @@
         <v>188.29900000000001</v>
       </c>
       <c r="H15">
-        <v>0.08</v>
+        <v>8.0339999999999995E-2</v>
       </c>
       <c r="I15">
-        <v>2.9999999999999997E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="J15">
         <v>3.9E-2</v>
@@ -1308,7 +1309,7 @@
       </c>
       <c r="P15">
         <f>SQRT((H15^2)-(0.0627^2))</f>
-        <v>4.9686114760564642E-2</v>
+        <v>5.0231719062759528E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1433,7 +1434,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I18">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J18">
         <v>4.9700000000000001E-2</v>
@@ -1478,7 +1479,7 @@
         <v>189.935</v>
       </c>
       <c r="H19">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5300000000000006E-2</v>
       </c>
       <c r="I19">
         <v>5.9999999999999995E-4</v>
@@ -1500,7 +1501,7 @@
       </c>
       <c r="P19">
         <f>SQRT((H19^2)-(0.0627^2))</f>
-        <v>4.1154708114625224E-2</v>
+        <v>4.1698920849345733E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1526,10 +1527,10 @@
         <v>190.03700000000001</v>
       </c>
       <c r="H20">
-        <v>0.08</v>
+        <v>7.9780000000000004E-2</v>
       </c>
       <c r="I20">
-        <v>5.9999999999999995E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="J20">
         <v>3.8899999999999997E-2</v>
@@ -1548,7 +1549,7 @@
       </c>
       <c r="P20">
         <f>SQRT((H20^2)-(0.0627^2))</f>
-        <v>4.9686114760564642E-2</v>
+        <v>4.9331109859803476E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1574,10 +1575,10 @@
         <v>190.38200000000001</v>
       </c>
       <c r="H21">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="I21">
-        <v>8.9999999999999993E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="J21">
         <v>5.4600000000000003E-2</v>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="P21">
         <f>SQRT((H21^2)-(0.0627^2))</f>
-        <v>6.1747145683019214E-2</v>
+        <v>6.2599281146032332E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1622,10 +1623,10 @@
         <v>191.20599999999999</v>
       </c>
       <c r="H22">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="I22">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="J22">
         <v>3.3099999999999997E-2</v>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="P22">
         <f>SQRT((H22^2)-(0.0627^2))</f>
-        <v>4.4695749238602096E-2</v>
+        <v>4.4867805830015803E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1718,10 +1719,10 @@
         <v>192.39400000000001</v>
       </c>
       <c r="H24">
-        <v>8.1000000000000003E-2</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="I24">
-        <v>2E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J24">
         <v>4.19E-2</v>
@@ -1740,7 +1741,7 @@
       </c>
       <c r="P24">
         <f>SQRT((H24^2)-(0.0627^2))</f>
-        <v>5.1280698123173006E-2</v>
+        <v>5.1753260766834772E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1766,10 +1767,10 @@
         <v>192.62700000000001</v>
       </c>
       <c r="H25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="I25">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J25">
         <v>4.2700000000000002E-2</v>
@@ -1788,7 +1789,7 @@
       </c>
       <c r="P25">
         <f>SQRT((H25^2)-(0.0627^2))</f>
-        <v>5.2846097301503733E-2</v>
+        <v>5.2379385257942834E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -1814,10 +1815,10 @@
         <v>193.50899999999999</v>
       </c>
       <c r="H26">
-        <v>8.1000000000000003E-2</v>
+        <v>8.0570000000000003E-2</v>
       </c>
       <c r="I26">
-        <v>5.0000000000000001E-4</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="J26">
         <v>4.0399999999999998E-2</v>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="P26">
         <f>SQRT((H26^2)-(0.0627^2))</f>
-        <v>5.1280698123173006E-2</v>
+        <v>5.0598763818891855E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1862,10 +1863,10 @@
         <v>193.715</v>
       </c>
       <c r="H27">
-        <v>7.8E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="I27">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J27">
         <v>3.4599999999999999E-2</v>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="P27">
         <f>SQRT((H27^2)-(0.0627^2))</f>
-        <v>4.6397305956272929E-2</v>
+        <v>4.6060286581826634E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1910,10 +1911,10 @@
         <v>193.96799999999999</v>
       </c>
       <c r="H28">
-        <v>6.7000000000000004E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="I28">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="K28">
         <v>8.2000000000000003E-2</v>
@@ -1929,7 +1930,7 @@
       </c>
       <c r="P28">
         <f>SQRT((H28^2)-(0.0627^2))</f>
-        <v>2.3615884484812343E-2</v>
+        <v>2.304235231047385E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1955,13 +1956,13 @@
         <v>194.29900000000001</v>
       </c>
       <c r="H29">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="I29">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J29">
-        <v>3.1099999999999999E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="K29">
         <v>8.5999999999999993E-2</v>
@@ -1977,7 +1978,7 @@
       </c>
       <c r="P29">
         <f>SQRT((H29^2)-(0.0627^2))</f>
-        <v>4.2950087310737788E-2</v>
+        <v>4.3303002205389872E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2003,10 +2004,10 @@
         <v>194.661</v>
       </c>
       <c r="H30">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7160000000000006E-2</v>
       </c>
       <c r="I30">
-        <v>5.0000000000000001E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="J30">
         <v>3.3099999999999997E-2</v>
@@ -2025,7 +2026,7 @@
       </c>
       <c r="P30">
         <f>SQRT((H30^2)-(0.0627^2))</f>
-        <v>4.4695749238602096E-2</v>
+        <v>4.497083054603284E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2051,10 +2052,10 @@
         <v>195.119</v>
       </c>
       <c r="H31">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4360000000000004E-2</v>
       </c>
       <c r="I31">
-        <v>5.0000000000000001E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="J31">
         <v>4.7500000000000001E-2</v>
@@ -2073,7 +2074,7 @@
       </c>
       <c r="P31">
         <f>SQRT((H31^2)-(0.0627^2))</f>
-        <v>5.5899105538460989E-2</v>
+        <v>5.643863570285873E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2099,10 +2100,10 @@
         <v>195.48400000000001</v>
       </c>
       <c r="H32">
-        <v>6.4000000000000001E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="I32">
-        <v>8.0000000000000002E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="K32">
         <v>8.7999999999999995E-2</v>
@@ -2118,7 +2119,7 @@
       </c>
       <c r="P32">
         <f>SQRT((H32^2)-(0.0627^2))</f>
-        <v>1.2833939379629285E-2</v>
+        <v>1.0661613386350105E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2144,10 +2145,10 @@
         <v>195.97200000000001</v>
       </c>
       <c r="H33">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="I33">
-        <v>8.0000000000000004E-4</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="J33">
         <v>4.9599999999999998E-2</v>
@@ -2169,7 +2170,7 @@
       </c>
       <c r="P33">
         <f>SQRT((H33^2)-(0.0627^2))</f>
-        <v>5.7390852929713465E-2</v>
+        <v>5.7538856436324823E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2198,7 +2199,7 @@
         <v>0.08</v>
       </c>
       <c r="I34">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J34">
         <v>3.8800000000000001E-2</v>
@@ -2246,7 +2247,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="I35">
-        <v>0.02</v>
+        <v>1.6E-2</v>
       </c>
       <c r="N35" t="s">
         <v>22</v>
@@ -2279,10 +2280,10 @@
         <v>197.36199999999999</v>
       </c>
       <c r="H36">
-        <v>8.8999999999999996E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="I36">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J36">
         <v>5.5E-2</v>
@@ -2304,7 +2305,7 @@
       </c>
       <c r="P36">
         <f>SQRT((H36^2)-(0.0627^2))</f>
-        <v>6.3164151225200513E-2</v>
+        <v>6.2599281146032332E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2330,10 +2331,10 @@
         <v>197.85400000000001</v>
       </c>
       <c r="H37">
-        <v>8.1000000000000003E-2</v>
+        <v>8.0850000000000005E-2</v>
       </c>
       <c r="I37">
-        <v>2.9999999999999997E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="J37">
         <v>4.1000000000000002E-2</v>
@@ -2352,7 +2353,7 @@
       </c>
       <c r="P37">
         <f>SQRT((H37^2)-(0.0627^2))</f>
-        <v>5.1280698123173006E-2</v>
+        <v>5.1043437384251468E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2378,10 +2379,10 @@
         <v>198.42400000000001</v>
       </c>
       <c r="H38">
-        <v>9.7000000000000003E-2</v>
+        <v>9.69E-2</v>
       </c>
       <c r="I38">
-        <v>8.0000000000000002E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="J38">
         <v>6.7299999999999999E-2</v>
@@ -2400,7 +2401,7 @@
       </c>
       <c r="P38">
         <f>SQRT((H38^2)-(0.0627^2))</f>
-        <v>7.4011553152193751E-2</v>
+        <v>7.3880443961849604E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2426,7 +2427,7 @@
         <v>199.31800000000001</v>
       </c>
       <c r="H39">
-        <v>7.2999999999999995E-2</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="I39">
         <v>8.0000000000000002E-3</v>
@@ -2448,7 +2449,7 @@
       </c>
       <c r="P39">
         <f>SQRT((H39^2)-(0.0627^2))</f>
-        <v>3.7385959931503683E-2</v>
+        <v>3.6796738985948187E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -2474,10 +2475,10 @@
         <v>201.565</v>
       </c>
       <c r="H40">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="I40">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="J40">
         <v>4.7E-2</v>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="P40">
         <f>SQRT((H40^2)-(0.0627^2))</f>
-        <v>5.5899105538460989E-2</v>
+        <v>5.6049264045123719E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2522,10 +2523,10 @@
         <v>201.73400000000001</v>
       </c>
       <c r="H41">
-        <v>7.6999999999999999E-2</v>
+        <v>7.6799999999999993E-2</v>
       </c>
       <c r="I41">
-        <v>5.0000000000000001E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="J41">
         <v>3.2199999999999999E-2</v>
@@ -2544,7 +2545,7 @@
       </c>
       <c r="P41">
         <f>SQRT((H41^2)-(0.0627^2))</f>
-        <v>4.4695749238602096E-2</v>
+        <v>4.4350310032738198E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -2570,10 +2571,10 @@
         <v>202.04400000000001</v>
       </c>
       <c r="H42">
-        <v>8.2000000000000003E-2</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="I42">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J42">
         <v>4.3499999999999997E-2</v>
@@ -2592,7 +2593,7 @@
       </c>
       <c r="P42">
         <f>SQRT((H42^2)-(0.0627^2))</f>
-        <v>5.2846097301503733E-2</v>
+        <v>5.3001132063381445E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -2618,7 +2619,7 @@
         <v>202.42400000000001</v>
       </c>
       <c r="H43">
-        <v>8.6999999999999994E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="I43">
         <v>3.0000000000000001E-3</v>
@@ -2640,7 +2641,7 @@
       </c>
       <c r="P43">
         <f>SQRT((H43^2)-(0.0627^2))</f>
-        <v>6.0313431339959415E-2</v>
+        <v>5.9734998116681974E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -2666,10 +2667,10 @@
         <v>202.70500000000001</v>
       </c>
       <c r="H44">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5500000000000003E-2</v>
       </c>
       <c r="I44">
-        <v>5.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="K44">
         <v>0.09</v>
@@ -2685,7 +2686,7 @@
       </c>
       <c r="P44">
         <f>SQRT((H44^2)-(0.0627^2))</f>
-        <v>1.7137969541342987E-2</v>
+        <v>1.8946239732464069E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -2711,10 +2712,10 @@
         <v>202.82499999999999</v>
       </c>
       <c r="H45">
-        <v>0.09</v>
+        <v>8.9599999999999999E-2</v>
       </c>
       <c r="I45">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="J45">
         <v>5.6300000000000003E-2</v>
@@ -2733,7 +2734,7 @@
       </c>
       <c r="P45">
         <f>SQRT((H45^2)-(0.0627^2))</f>
-        <v>6.4565548088744665E-2</v>
+        <v>6.4006796514120265E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -2762,7 +2763,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I46">
-        <v>0.03</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="K46">
         <v>8.6999999999999994E-2</v>
@@ -2804,10 +2805,10 @@
         <v>204.70400000000001</v>
       </c>
       <c r="H47">
-        <v>7.3999999999999996E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="I47">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J47">
         <v>2.4500000000000001E-2</v>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="P47">
         <f>SQRT((H47^2)-(0.0627^2))</f>
-        <v>3.9302798882522333E-2</v>
+        <v>3.9114191797862817E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -2852,10 +2853,10 @@
         <v>205.01</v>
       </c>
       <c r="H48">
-        <v>7.8E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="I48">
-        <v>2E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J48">
         <v>3.5200000000000002E-2</v>
@@ -2877,7 +2878,7 @@
       </c>
       <c r="P48">
         <f>SQRT((H48^2)-(0.0627^2))</f>
-        <v>4.6397305956272929E-2</v>
+        <v>4.6565223074736789E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -2906,7 +2907,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="I49">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="J49">
         <v>1.2999999999999999E-2</v>
@@ -2954,10 +2955,10 @@
         <v>246.00200000000001</v>
       </c>
       <c r="H50">
-        <v>0.06</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="I50">
-        <v>8.9999999999999993E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="K50">
         <v>9.2999999999999999E-2</v>
@@ -3002,7 +3003,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I51">
-        <v>0.03</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N51" t="s">
         <v>22</v>
@@ -3038,7 +3039,7 @@
         <v>0.106</v>
       </c>
       <c r="I52">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J52">
         <v>8.0600000000000005E-2</v>
@@ -3083,10 +3084,10 @@
         <v>253.95599999999999</v>
       </c>
       <c r="H53">
-        <v>0.08</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="I53">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J53">
         <v>3.9600000000000003E-2</v>
@@ -3108,7 +3109,7 @@
       </c>
       <c r="P53">
         <f>SQRT((H53^2)-(0.0627^2))</f>
-        <v>4.9686114760564642E-2</v>
+        <v>4.9363448015712991E-2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -3134,10 +3135,10 @@
         <v>254.596</v>
       </c>
       <c r="H54">
-        <v>7.0999999999999994E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I54">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="J54">
         <v>1.66E-2</v>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="P54">
         <f>SQRT((H54^2)-(0.0627^2))</f>
-        <v>3.3312310036981811E-2</v>
+        <v>3.373647877298399E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3185,7 +3186,7 @@
         <v>0.06</v>
       </c>
       <c r="I55">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="K55">
         <v>9.0999999999999998E-2</v>
@@ -3227,10 +3228,10 @@
         <v>255.35</v>
       </c>
       <c r="H56">
-        <v>6.5000000000000002E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="I56">
-        <v>8.0000000000000002E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K56">
         <v>9.0999999999999998E-2</v>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="P56">
         <f>SQRT((H56^2)-(0.0627^2))</f>
-        <v>1.7137969541342987E-2</v>
+        <v>1.8597580487794637E-2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3275,7 +3276,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I57">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="K57">
         <v>0.09</v>
@@ -3320,7 +3321,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I58">
-        <v>0.03</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J58">
         <v>6.4899999999999999E-2</v>
@@ -3365,10 +3366,10 @@
         <v>256.91899999999998</v>
       </c>
       <c r="H59">
-        <v>8.5999999999999993E-2</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="I59">
-        <v>4.0000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="J59">
         <v>5.1299999999999998E-2</v>
@@ -3387,7 +3388,7 @@
       </c>
       <c r="P59">
         <f>SQRT((H59^2)-(0.0627^2))</f>
-        <v>5.8861787264744163E-2</v>
+        <v>5.915361358361803E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3416,7 +3417,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="I60">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J60">
         <v>5.4600000000000003E-2</v>
@@ -3464,7 +3465,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I61">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J61">
         <v>5.0299999999999997E-2</v>
@@ -3512,10 +3513,10 @@
         <v>258.37400000000002</v>
       </c>
       <c r="H62">
-        <v>8.7999999999999995E-2</v>
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="I62">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J62">
         <v>5.4100000000000002E-2</v>
@@ -3534,7 +3535,7 @@
       </c>
       <c r="P62">
         <f>SQRT((H62^2)-(0.0627^2))</f>
-        <v>6.1747145683019214E-2</v>
+        <v>6.146177673969408E-2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3614,7 +3615,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="I64">
-        <v>0.02</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J64">
         <v>4.9799999999999997E-2</v>
@@ -3659,10 +3660,10 @@
         <v>261.05599999999998</v>
       </c>
       <c r="H65">
-        <v>8.5000000000000006E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="I65">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J65">
         <v>4.9399999999999999E-2</v>
@@ -3681,7 +3682,7 @@
       </c>
       <c r="P65">
         <f>SQRT((H65^2)-(0.0627^2))</f>
-        <v>5.7390852929713465E-2</v>
+        <v>5.7538856436324823E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -3707,10 +3708,10 @@
         <v>264.23</v>
       </c>
       <c r="H66">
-        <v>8.6999999999999994E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="I66">
-        <v>6.0000000000000001E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="J66">
         <v>5.1999999999999998E-2</v>
@@ -3729,7 +3730,7 @@
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P85" si="0">SQRT((H66^2)-(0.0627^2))</f>
-        <v>6.0313431339959415E-2</v>
+        <v>5.9734998116681974E-2</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -3755,7 +3756,7 @@
         <v>264.77199999999999</v>
       </c>
       <c r="H67">
-        <v>8.3000000000000004E-2</v>
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="I67">
         <v>8.0000000000000002E-3</v>
@@ -3777,7 +3778,7 @@
       </c>
       <c r="P67">
         <f t="shared" si="0"/>
-        <v>5.438483244434978E-2</v>
+        <v>5.423209381906622E-2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -3806,7 +3807,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="I68">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J68">
         <v>6.0499999999999998E-2</v>
@@ -3857,7 +3858,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I69">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K69">
         <v>0.107</v>
@@ -3902,7 +3903,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="I70">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J70">
         <v>5.45E-2</v>
@@ -3950,7 +3951,7 @@
         <v>0.06</v>
       </c>
       <c r="I71">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="K71">
         <v>0.107</v>
@@ -3992,10 +3993,10 @@
         <v>271.99200000000002</v>
       </c>
       <c r="H72">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="I72">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="J72">
         <v>6.0999999999999999E-2</v>
@@ -4014,7 +4015,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="0"/>
-        <v>6.7325403823519689E-2</v>
+        <v>6.759844672771706E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -4040,10 +4041,10 @@
         <v>272.64699999999999</v>
       </c>
       <c r="H73">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="I73">
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J73">
         <v>5.9400000000000001E-2</v>
@@ -4062,7 +4063,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="0"/>
-        <v>6.5952331270395584E-2</v>
+        <v>6.6228015220146833E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -4088,10 +4089,10 @@
         <v>275.36099999999999</v>
       </c>
       <c r="H74">
-        <v>9.1999999999999998E-2</v>
+        <v>9.1649999999999995E-2</v>
       </c>
       <c r="I74">
-        <v>5.0000000000000001E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="J74">
         <v>6.0100000000000001E-2</v>
@@ -4110,7 +4111,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="0"/>
-        <v>6.7325403823519689E-2</v>
+        <v>6.6846334978067412E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -4136,10 +4137,10 @@
         <v>275.67500000000001</v>
       </c>
       <c r="H75" s="1">
-        <v>8.8999999999999996E-2</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="I75" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J75" s="1">
         <v>5.6899999999999999E-2</v>
@@ -4158,7 +4159,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="0"/>
-        <v>6.3164151225200513E-2</v>
+        <v>6.386673625605116E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -4184,10 +4185,10 @@
         <v>276.154</v>
       </c>
       <c r="H76">
-        <v>9.0999999999999998E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="I76">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J76">
         <v>5.91E-2</v>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="0"/>
-        <v>6.5952331270395584E-2</v>
+        <v>6.5814284163850018E-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4232,10 +4233,10 @@
         <v>277.26400000000001</v>
       </c>
       <c r="H77">
-        <v>9.9000000000000005E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="I77">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="J77">
         <v>7.0599999999999996E-2</v>
@@ -4254,7 +4255,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="0"/>
-        <v>7.6614032657209744E-2</v>
+        <v>7.6355418930158445E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4283,7 +4284,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="I78">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J78">
         <v>5.3100000000000001E-2</v>
@@ -4367,7 +4368,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="I80">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J80">
         <v>1.3899999999999999E-2</v>
@@ -4412,10 +4413,10 @@
         <v>280.74200000000002</v>
       </c>
       <c r="H81">
-        <v>7.8E-2</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="I81">
-        <v>7.0000000000000001E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="J81">
         <v>3.6200000000000003E-2</v>
@@ -4434,7 +4435,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="0"/>
-        <v>4.6397305956272929E-2</v>
+        <v>4.6228995230266461E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -4463,7 +4464,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="I82">
-        <v>0.02</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J82">
         <v>6.2899999999999998E-2</v>
@@ -4508,10 +4509,10 @@
         <v>284.04199999999997</v>
       </c>
       <c r="H83">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="I83">
-        <v>8.0000000000000002E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="J83">
         <v>5.9400000000000001E-2</v>
@@ -4530,7 +4531,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="0"/>
-        <v>6.5952331270395584E-2</v>
+        <v>6.6228015220146833E-2</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -4559,7 +4560,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="I84">
-        <v>8.9999999999999993E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="K84">
         <v>9.4E-2</v>
@@ -4604,10 +4605,10 @@
         <v>290.68700000000001</v>
       </c>
       <c r="H85">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="I85">
-        <v>7.0000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="K85">
         <v>0.108</v>
@@ -4623,7 +4624,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="0"/>
-        <v>3.1124106412875538E-2</v>
+        <v>3.1793081008294873E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4635,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02149022-7C1E-734A-A269-E036E35CA0BA}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4713,10 +4714,10 @@
         <v>180.40100000000001</v>
       </c>
       <c r="H2">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4849999999999995E-2</v>
       </c>
       <c r="I2">
-        <v>6.9999999999999999E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="J2">
         <v>4.8300000000000003E-2</v>
@@ -4774,10 +4775,10 @@
         <v>184.41</v>
       </c>
       <c r="H4">
-        <v>7.3999999999999996E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="I4">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J4">
         <v>2.6100000000000002E-2</v>
@@ -4835,10 +4836,10 @@
         <v>186.887</v>
       </c>
       <c r="H6">
-        <v>0.10100000000000001</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="I6">
-        <v>3.0000000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="J6">
         <v>7.3700000000000002E-2</v>
@@ -4925,10 +4926,10 @@
         <v>188.49299999999999</v>
       </c>
       <c r="H9">
-        <v>8.1000000000000003E-2</v>
+        <v>8.1309999999999993E-2</v>
       </c>
       <c r="I9">
-        <v>2.0000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="J9">
         <v>4.1799999999999997E-2</v>
@@ -4987,7 +4988,7 @@
         <v>188.68100000000001</v>
       </c>
       <c r="H11">
-        <v>8.1000000000000003E-2</v>
+        <v>8.0979999999999996E-2</v>
       </c>
       <c r="I11">
         <v>2.9999999999999997E-4</v>
@@ -5048,10 +5049,10 @@
         <v>192.00399999999999</v>
       </c>
       <c r="H13">
-        <v>7.6999999999999999E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="I13">
-        <v>7.0000000000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="J13">
         <v>3.2099999999999997E-2</v>
@@ -5109,10 +5110,10 @@
         <v>192.81299999999999</v>
       </c>
       <c r="H15">
-        <v>9.2999999999999999E-2</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="I15">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J15">
         <v>6.2199999999999998E-2</v>
@@ -5190,10 +5191,10 @@
         <v>192.904</v>
       </c>
       <c r="H18">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="I18">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="J18">
         <v>1.2999999999999999E-2</v>
@@ -5265,10 +5266,10 @@
         <v>195.119</v>
       </c>
       <c r="H21">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9329999999999998E-2</v>
       </c>
       <c r="I21">
-        <v>1E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="J21">
         <v>3.7699999999999997E-2</v>
@@ -5297,10 +5298,10 @@
         <v>195.179</v>
       </c>
       <c r="H22">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9329999999999998E-2</v>
       </c>
       <c r="I22">
-        <v>1E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="J22">
         <v>3.7699999999999997E-2</v>
@@ -5329,10 +5330,10 @@
         <v>195.38900000000001</v>
       </c>
       <c r="H23">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="I23">
-        <v>2E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J23">
         <v>3.9899999999999998E-2</v>
@@ -5390,10 +5391,10 @@
         <v>196.64</v>
       </c>
       <c r="H25">
-        <v>8.1000000000000003E-2</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="I25">
-        <v>2E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J25">
         <v>4.1500000000000002E-2</v>
@@ -5451,10 +5452,10 @@
         <v>198.53800000000001</v>
       </c>
       <c r="H27">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9289999999999999E-2</v>
       </c>
       <c r="I27">
-        <v>5.9999999999999995E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="J27">
         <v>3.7499999999999999E-2</v>
@@ -5512,10 +5513,10 @@
         <v>199.97499999999999</v>
       </c>
       <c r="H29">
-        <v>0.111</v>
+        <v>0.1108</v>
       </c>
       <c r="I29">
-        <v>8.0000000000000002E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="J29">
         <v>8.6199999999999999E-2</v>
@@ -5573,10 +5574,10 @@
         <v>201.11199999999999</v>
       </c>
       <c r="H31">
-        <v>9.9000000000000005E-2</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="I31">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="J31">
         <v>7.0400000000000004E-2</v>
@@ -5637,7 +5638,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="I33">
-        <v>0.03</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J33">
         <v>3.1600000000000003E-2</v>
@@ -5698,7 +5699,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I35">
-        <v>1E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="J35">
         <v>5.0500000000000003E-2</v>
@@ -5759,7 +5760,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="I37">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J37">
         <v>6.7500000000000004E-2</v>
@@ -5820,7 +5821,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="I39">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J39">
         <v>6.7500000000000004E-2</v>
@@ -5858,7 +5859,7 @@
         <v>207.124</v>
       </c>
       <c r="H40">
-        <v>0.104</v>
+        <v>0.10440000000000001</v>
       </c>
       <c r="I40">
         <v>5.0000000000000001E-3</v>
@@ -5962,7 +5963,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="I44">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J44">
         <v>4.5499999999999999E-2</v>
@@ -6020,10 +6021,10 @@
         <v>207.91499999999999</v>
       </c>
       <c r="H46">
-        <v>7.0000000000000007E-2</v>
+        <v>6.93E-2</v>
       </c>
       <c r="I46">
-        <v>5.0000000000000001E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="K46">
         <v>8.6999999999999994E-2</v>
@@ -6078,10 +6079,10 @@
         <v>247.40199999999999</v>
       </c>
       <c r="H48">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
       <c r="I48">
-        <v>0.01</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="J48">
         <v>5.2999999999999999E-2</v>
@@ -6139,10 +6140,10 @@
         <v>248.453</v>
       </c>
       <c r="H50">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="I50">
-        <v>4.0000000000000001E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="J50">
         <v>3.4299999999999997E-2</v>
@@ -6200,10 +6201,10 @@
         <v>256.31700000000001</v>
       </c>
       <c r="H52">
-        <v>0.125</v>
+        <v>0.1255</v>
       </c>
       <c r="I52">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="J52">
         <v>0.105</v>
@@ -6252,10 +6253,10 @@
         <v>256.37700000000001</v>
       </c>
       <c r="H54">
-        <v>0.108</v>
+        <v>0.1076</v>
       </c>
       <c r="I54">
-        <v>5.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J54">
         <v>8.2299999999999998E-2</v>
@@ -6333,10 +6334,10 @@
         <v>257.25900000000001</v>
       </c>
       <c r="H57">
-        <v>8.4000000000000005E-2</v>
+        <v>8.4190000000000001E-2</v>
       </c>
       <c r="I57">
-        <v>5.0000000000000001E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="J57">
         <v>4.7899999999999998E-2</v>
@@ -6394,7 +6395,7 @@
         <v>257.54700000000003</v>
       </c>
       <c r="H59">
-        <v>9.5000000000000001E-2</v>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="I59">
         <v>6.0000000000000001E-3</v>
@@ -6458,7 +6459,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="I61">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J61">
         <v>1.5100000000000001E-2</v>
@@ -6516,10 +6517,10 @@
         <v>270.39</v>
       </c>
       <c r="H63">
-        <v>8.6999999999999994E-2</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="I63">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="J63">
         <v>5.33E-2</v>
@@ -6580,7 +6581,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I65">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J65">
         <v>6.5000000000000002E-2</v>
@@ -6641,10 +6642,10 @@
         <v>276.85000000000002</v>
       </c>
       <c r="H67">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="I67">
-        <v>1E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J67">
         <v>6.1100000000000002E-2</v>
@@ -6725,7 +6726,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="I70">
-        <v>4.0000000000000001E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="J70">
         <v>5.1200000000000002E-2</v>
@@ -6763,10 +6764,10 @@
         <v>277.04199999999997</v>
       </c>
       <c r="H71">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="I71">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J71">
         <v>6.5000000000000002E-2</v>
@@ -6824,10 +6825,10 @@
         <v>278.404</v>
       </c>
       <c r="H73">
-        <v>0.11799999999999999</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="I73">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J73">
         <v>9.6000000000000002E-2</v>
@@ -6872,7 +6873,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6899,10 +6900,10 @@
         <v>187.94800000000001</v>
       </c>
       <c r="B2">
-        <v>7.6999999999999999E-2</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D2">
         <v>2.7099999999999999E-2</v>
@@ -6916,10 +6917,10 @@
         <v>188.8</v>
       </c>
       <c r="B3">
-        <v>9.6000000000000002E-2</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="D3">
         <v>6.5600000000000006E-2</v>
@@ -6950,7 +6951,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6958,10 +6959,10 @@
         <v>191.08500000000001</v>
       </c>
       <c r="B6">
-        <v>7.3999999999999996E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="D6">
         <v>2.6200000000000001E-2</v>
@@ -6975,7 +6976,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D7">
         <v>4.8500000000000001E-2</v>
@@ -6989,7 +6990,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D8">
         <v>3.6200000000000003E-2</v>
@@ -7000,10 +7001,10 @@
         <v>193.26599999999999</v>
       </c>
       <c r="B9">
-        <v>6.9000000000000006E-2</v>
+        <v>6.88E-2</v>
       </c>
       <c r="C9">
-        <v>3.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="D9">
         <v>2.3900000000000001E-2</v>
@@ -7011,13 +7012,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>194.09800000000001</v>
+        <v>194.1</v>
       </c>
       <c r="B10">
         <v>5.5E-2</v>
       </c>
       <c r="C10">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7025,10 +7026,10 @@
         <v>194.80799999999999</v>
       </c>
       <c r="B11">
-        <v>9.2999999999999999E-2</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="C11">
-        <v>2E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D11">
         <v>6.2E-2</v>
@@ -7042,10 +7043,10 @@
         <v>195.73500000000001</v>
       </c>
       <c r="B12">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="C12">
-        <v>7.0000000000000001E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D12">
         <v>1.9199999999999998E-2</v>
@@ -7056,10 +7057,10 @@
         <v>196.804</v>
       </c>
       <c r="B13">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="C13">
-        <v>7.0000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="D13">
         <v>9.4999999999999998E-3</v>
@@ -7070,7 +7071,7 @@
         <v>197.18299999999999</v>
       </c>
       <c r="B14">
-        <v>9.8000000000000004E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C14">
         <v>0.03</v>
@@ -7087,7 +7088,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="C15">
-        <v>0.02</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D15">
         <v>4.0599999999999997E-2</v>
@@ -7101,7 +7102,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C16">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7112,7 +7113,7 @@
         <v>0.09</v>
       </c>
       <c r="C17">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D17">
         <v>5.62E-2</v>
@@ -7126,7 +7127,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="C18">
-        <v>0.03</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D18">
         <v>6.7100000000000007E-2</v>
@@ -7137,10 +7138,10 @@
         <v>199.601</v>
       </c>
       <c r="B19">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="C19">
-        <v>6.0000000000000001E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="D19">
         <v>5.8799999999999998E-2</v>
@@ -7151,10 +7152,10 @@
         <v>199.78</v>
       </c>
       <c r="B20">
-        <v>8.8999999999999996E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="C20">
-        <v>0.01</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="D20">
         <v>5.57E-2</v>
@@ -7168,7 +7169,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D21">
         <v>6.6900000000000001E-2</v>
@@ -7193,7 +7194,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C23">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D23">
         <v>2.3599999999999999E-2</v>
@@ -7221,7 +7222,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="C25">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D25">
         <v>7.5399999999999995E-2</v>
@@ -7235,7 +7236,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="C26">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7243,10 +7244,10 @@
         <v>246.995</v>
       </c>
       <c r="B27">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="C27">
-        <v>8.0000000000000002E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D27">
         <v>3.4299999999999997E-2</v>
@@ -7260,7 +7261,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C28">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D28">
         <v>1.8599999999999998E-2</v>
@@ -7274,7 +7275,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7282,10 +7283,10 @@
         <v>254.673</v>
       </c>
       <c r="B30">
-        <v>7.0999999999999994E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="C30">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="D30">
         <v>1.6500000000000001E-2</v>
@@ -7296,10 +7297,10 @@
         <v>266.52199999999999</v>
       </c>
       <c r="B31">
-        <v>3.9E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4F011-21D0-7A42-B600-1DFDBBB3C9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA9435E-A379-CF4A-847E-B36ED5E6FEC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,8 +684,8 @@
         <v>11</v>
       </c>
       <c r="P2">
-        <f>SQRT((H2^2)-(0.0627^2))</f>
-        <v>4.871416631740709E-2</v>
+        <f>SQRT((H2^2)-(0.06325^2))</f>
+        <v>4.7997890578649394E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -729,8 +729,8 @@
         <v>22</v>
       </c>
       <c r="P3">
-        <f>SQRT((H3^2)-(0.0627^2))</f>
-        <v>1.6754700832900569E-2</v>
+        <f t="shared" ref="P3:P66" si="0">SQRT((H3^2)-(0.06325^2))</f>
+        <v>1.4541234473042506E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -777,8 +777,8 @@
         <v>11</v>
       </c>
       <c r="P4">
-        <f>SQRT((H4^2)-(0.0627^2))</f>
-        <v>5.0932488649191296E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0247844729898627E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -825,8 +825,8 @@
         <v>11</v>
       </c>
       <c r="P5">
-        <f>SQRT((H5^2)-(0.0627^2))</f>
-        <v>4.8876988450599124E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8163134241865954E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -873,8 +873,8 @@
         <v>15</v>
       </c>
       <c r="P6">
-        <f>SQRT((H6^2)-(0.0627^2))</f>
-        <v>6.0024578299226722E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9444743249508616E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -921,8 +921,8 @@
         <v>15</v>
       </c>
       <c r="P7">
-        <f>SQRT((H7^2)-(0.0627^2))</f>
-        <v>6.7461989297677855E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.69466018555087E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -969,8 +969,8 @@
         <v>11</v>
       </c>
       <c r="P8">
-        <f>SQRT((H8^2)-(0.0627^2))</f>
-        <v>5.1910210941586432E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.1238632885743547E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1017,8 +1017,8 @@
         <v>11</v>
       </c>
       <c r="P9">
-        <f>SQRT((H9^2)-(0.0627^2))</f>
-        <v>4.686649549518291E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6121534016118772E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1065,8 +1065,8 @@
         <v>11</v>
       </c>
       <c r="P10">
-        <f>SQRT((H10^2)-(0.0627^2))</f>
-        <v>4.3793839749444216E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2995673038109326E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1116,8 +1116,8 @@
         <v>36</v>
       </c>
       <c r="P11">
-        <f>SQRT((H11^2)-(0.0627^2))</f>
-        <v>5.4079108720466167E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3434796715249144E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1164,8 +1164,8 @@
         <v>11</v>
       </c>
       <c r="P12">
-        <f>SQRT((H12^2)-(0.0627^2))</f>
-        <v>4.9379612189647669E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8673130164393591E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1212,8 +1212,8 @@
         <v>15</v>
       </c>
       <c r="P13">
-        <f>SQRT((H13^2)-(0.0627^2))</f>
-        <v>7.4535025323669138E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4068869979229471E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1260,8 +1260,8 @@
         <v>11</v>
       </c>
       <c r="P14">
-        <f>SQRT((H14^2)-(0.0627^2))</f>
-        <v>5.0231719062759528E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.9537390928469371E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1308,8 +1308,8 @@
         <v>11</v>
       </c>
       <c r="P15">
-        <f>SQRT((H15^2)-(0.0627^2))</f>
-        <v>5.0231719062759528E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.9537390928469371E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1356,8 +1356,8 @@
         <v>22</v>
       </c>
       <c r="P16">
-        <f>SQRT((H16^2)-(0.0627^2))</f>
-        <v>5.8861787264744163E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.827038269996173E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1404,8 +1404,8 @@
         <v>22</v>
       </c>
       <c r="P17">
-        <f>SQRT((H17^2)-(0.0627^2))</f>
-        <v>3.5393643497102681E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4401126435045691E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1452,8 +1452,8 @@
         <v>15</v>
       </c>
       <c r="P18">
-        <f>SQRT((H18^2)-(0.0627^2))</f>
-        <v>5.8861787264744163E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.827038269996173E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1500,8 +1500,8 @@
         <v>11</v>
       </c>
       <c r="P19">
-        <f>SQRT((H19^2)-(0.0627^2))</f>
-        <v>4.1698920849345733E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0859851933162966E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1548,8 +1548,8 @@
         <v>11</v>
       </c>
       <c r="P20">
-        <f>SQRT((H20^2)-(0.0627^2))</f>
-        <v>4.9331109859803476E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8623923124322253E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1596,8 +1596,8 @@
         <v>15</v>
       </c>
       <c r="P21">
-        <f>SQRT((H21^2)-(0.0627^2))</f>
-        <v>6.2599281146032332E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.2043512956633906E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1644,8 +1644,8 @@
         <v>11</v>
       </c>
       <c r="P22">
-        <f>SQRT((H22^2)-(0.0627^2))</f>
-        <v>4.4867805830015803E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4089085951060508E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1692,8 +1692,8 @@
         <v>15</v>
       </c>
       <c r="P23">
-        <f>SQRT((H23^2)-(0.0627^2))</f>
-        <v>6.4565548088744665E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.4026849836611513E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1740,8 +1740,8 @@
         <v>11</v>
       </c>
       <c r="P24">
-        <f>SQRT((H24^2)-(0.0627^2))</f>
-        <v>5.1753260766834772E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.1079619223326246E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1788,8 +1788,8 @@
         <v>11</v>
       </c>
       <c r="P25">
-        <f>SQRT((H25^2)-(0.0627^2))</f>
-        <v>5.2379385257942834E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.1713900452392873E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -1836,8 +1836,8 @@
         <v>11</v>
       </c>
       <c r="P26">
-        <f>SQRT((H26^2)-(0.0627^2))</f>
-        <v>5.0598763818891855E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.9909542173816823E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1884,8 +1884,8 @@
         <v>11</v>
       </c>
       <c r="P27">
-        <f>SQRT((H27^2)-(0.0627^2))</f>
-        <v>4.6060286581826634E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5302069489152476E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1929,8 +1929,8 @@
         <v>22</v>
       </c>
       <c r="P28">
-        <f>SQRT((H28^2)-(0.0627^2))</f>
-        <v>2.304235231047385E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1486681921599724E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1977,8 +1977,8 @@
         <v>11</v>
       </c>
       <c r="P29">
-        <f>SQRT((H29^2)-(0.0627^2))</f>
-        <v>4.3303002205389872E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2495617421094152E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2025,8 +2025,8 @@
         <v>11</v>
       </c>
       <c r="P30">
-        <f>SQRT((H30^2)-(0.0627^2))</f>
-        <v>4.497083054603284E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4193926053248546E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2073,8 +2073,8 @@
         <v>11</v>
       </c>
       <c r="P31">
-        <f>SQRT((H31^2)-(0.0627^2))</f>
-        <v>5.643863570285873E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.5821564829373969E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2118,8 +2118,8 @@
         <v>22</v>
       </c>
       <c r="P32">
-        <f>SQRT((H32^2)-(0.0627^2))</f>
-        <v>1.0661613386350105E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6631449031219819E-3</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2169,8 +2169,8 @@
         <v>31</v>
       </c>
       <c r="P33">
-        <f>SQRT((H33^2)-(0.0627^2))</f>
-        <v>5.7538856436324823E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6933711454638186E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2217,8 +2217,8 @@
         <v>15</v>
       </c>
       <c r="P34">
-        <f>SQRT((H34^2)-(0.0627^2))</f>
-        <v>4.9686114760564642E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8984053527653268E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>22</v>
       </c>
       <c r="P35" t="e">
-        <f>SQRT((H35^2)-(0.0627^2))</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -2304,8 +2304,8 @@
         <v>34</v>
       </c>
       <c r="P36">
-        <f>SQRT((H36^2)-(0.0627^2))</f>
-        <v>6.2599281146032332E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.2043512956633906E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2352,8 +2352,8 @@
         <v>11</v>
       </c>
       <c r="P37">
-        <f>SQRT((H37^2)-(0.0627^2))</f>
-        <v>5.1043437384251468E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0360301825942234E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2400,8 +2400,8 @@
         <v>15</v>
       </c>
       <c r="P38">
-        <f>SQRT((H38^2)-(0.0627^2))</f>
-        <v>7.3880443961849604E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.3410132134467648E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2448,8 +2448,8 @@
         <v>15</v>
       </c>
       <c r="P39">
-        <f>SQRT((H39^2)-(0.0627^2))</f>
-        <v>3.6796738985948187E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5843095569439869E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -2496,8 +2496,8 @@
         <v>15</v>
       </c>
       <c r="P40">
-        <f>SQRT((H40^2)-(0.0627^2))</f>
-        <v>5.6049264045123719E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.5427858518979418E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2544,8 +2544,8 @@
         <v>15</v>
       </c>
       <c r="P41">
-        <f>SQRT((H41^2)-(0.0627^2))</f>
-        <v>4.4350310032738198E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3562340387082045E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -2592,8 +2592,8 @@
         <v>11</v>
       </c>
       <c r="P42">
-        <f>SQRT((H42^2)-(0.0627^2))</f>
-        <v>5.3001132063381445E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2343552611568138E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -2640,8 +2640,8 @@
         <v>11</v>
       </c>
       <c r="P43">
-        <f>SQRT((H43^2)-(0.0627^2))</f>
-        <v>5.9734998116681974E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.915232455280181E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -2685,8 +2685,8 @@
         <v>22</v>
       </c>
       <c r="P44">
-        <f>SQRT((H44^2)-(0.0627^2))</f>
-        <v>1.8946239732464069E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7020208576865353E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -2733,8 +2733,8 @@
         <v>15</v>
       </c>
       <c r="P45">
-        <f>SQRT((H45^2)-(0.0627^2))</f>
-        <v>6.4006796514120265E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.3463355568390806E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -2778,7 +2778,7 @@
         <v>22</v>
       </c>
       <c r="P46" t="e">
-        <f>SQRT((H46^2)-(0.0627^2))</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -2826,8 +2826,8 @@
         <v>15</v>
       </c>
       <c r="P47">
-        <f>SQRT((H47^2)-(0.0627^2))</f>
-        <v>3.9114191797862817E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.821841833461976E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -2877,8 +2877,8 @@
         <v>38</v>
       </c>
       <c r="P48">
-        <f>SQRT((H48^2)-(0.0627^2))</f>
-        <v>4.6565223074736789E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5815363143818913E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -2928,8 +2928,8 @@
         <v>39</v>
       </c>
       <c r="P49">
-        <f>SQRT((H49^2)-(0.0627^2))</f>
-        <v>3.3312310036981811E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2255813429519956E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -2973,7 +2973,7 @@
         <v>22</v>
       </c>
       <c r="P50" t="e">
-        <f>SQRT((H50^2)-(0.0627^2))</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="P51" t="e">
-        <f>SQRT((H51^2)-(0.0627^2))</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3057,8 +3057,8 @@
         <v>22</v>
       </c>
       <c r="P52">
-        <f>SQRT((H52^2)-(0.0627^2))</f>
-        <v>8.5467596198793364E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5061374900715067E-2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3108,8 +3108,8 @@
         <v>43</v>
       </c>
       <c r="P53">
-        <f>SQRT((H53^2)-(0.0627^2))</f>
-        <v>4.9363448015712991E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8656731291775029E-2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -3156,8 +3156,8 @@
         <v>22</v>
       </c>
       <c r="P54">
-        <f>SQRT((H54^2)-(0.0627^2))</f>
-        <v>3.373647877298399E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.269369205213752E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3201,7 +3201,7 @@
         <v>22</v>
       </c>
       <c r="P55" t="e">
-        <f>SQRT((H55^2)-(0.0627^2))</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3246,8 +3246,8 @@
         <v>22</v>
       </c>
       <c r="P56">
-        <f>SQRT((H56^2)-(0.0627^2))</f>
-        <v>1.8597580487794637E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6631220640710667E-2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3291,8 +3291,8 @@
         <v>22</v>
       </c>
       <c r="P57">
-        <f>SQRT((H57^2)-(0.0627^2))</f>
-        <v>3.1124106412875538E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9990623534698321E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3339,8 +3339,8 @@
         <v>15</v>
       </c>
       <c r="P58">
-        <f>SQRT((H58^2)-(0.0627^2))</f>
-        <v>7.1370231889773206E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0883266713660992E-2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3387,8 +3387,8 @@
         <v>15</v>
       </c>
       <c r="P59">
-        <f>SQRT((H59^2)-(0.0627^2))</f>
-        <v>5.915361358361803E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.856515602301423E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3435,8 +3435,8 @@
         <v>15</v>
       </c>
       <c r="P60">
-        <f>SQRT((H60^2)-(0.0627^2))</f>
-        <v>6.1747145683019214E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1183637518539218E-2</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -3486,8 +3486,8 @@
         <v>46</v>
       </c>
       <c r="P61">
-        <f>SQRT((H61^2)-(0.0627^2))</f>
-        <v>5.8861787264744163E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.827038269996173E-2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -3534,8 +3534,8 @@
         <v>11</v>
       </c>
       <c r="P62">
-        <f>SQRT((H62^2)-(0.0627^2))</f>
-        <v>6.146177673969408E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0895627921879587E-2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3585,8 +3585,8 @@
         <v>47</v>
       </c>
       <c r="P63">
-        <f>SQRT((H63^2)-(0.0627^2))</f>
-        <v>6.7325403823519689E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6808962722077939E-2</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -3633,8 +3633,8 @@
         <v>15</v>
       </c>
       <c r="P64">
-        <f>SQRT((H64^2)-(0.0627^2))</f>
-        <v>5.7390852929713465E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6784130705682216E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -3681,8 +3681,8 @@
         <v>11</v>
       </c>
       <c r="P65">
-        <f>SQRT((H65^2)-(0.0627^2))</f>
-        <v>5.7538856436324823E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6933711454638186E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -3729,8 +3729,8 @@
         <v>11</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P85" si="0">SQRT((H66^2)-(0.0627^2))</f>
-        <v>5.9734998116681974E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.915232455280181E-2</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -3777,8 +3777,8 @@
         <v>15</v>
       </c>
       <c r="P67">
-        <f t="shared" si="0"/>
-        <v>5.423209381906622E-2</v>
+        <f t="shared" ref="P67:P85" si="1">SQRT((H67^2)-(0.06325^2))</f>
+        <v>5.3589621196645912E-2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -3828,8 +3828,8 @@
         <v>48</v>
       </c>
       <c r="P68">
-        <f t="shared" si="0"/>
-        <v>6.7325403823519689E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6808962722077939E-2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>22</v>
       </c>
       <c r="P69" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3921,8 +3921,8 @@
         <v>15</v>
       </c>
       <c r="P70">
-        <f t="shared" si="0"/>
-        <v>6.1747145683019214E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.1183637518539218E-2</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>22</v>
       </c>
       <c r="P71" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4014,8 +4014,8 @@
         <v>15</v>
       </c>
       <c r="P72">
-        <f t="shared" si="0"/>
-        <v>6.759844672771706E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7084107655986602E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -4062,8 +4062,8 @@
         <v>11</v>
       </c>
       <c r="P73">
-        <f t="shared" si="0"/>
-        <v>6.6228015220146833E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5702948944472817E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -4110,8 +4110,8 @@
         <v>11</v>
       </c>
       <c r="P74">
-        <f t="shared" si="0"/>
-        <v>6.6846334978067412E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.632616376664642E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -4158,8 +4158,8 @@
         <v>11</v>
       </c>
       <c r="P75">
-        <f t="shared" si="0"/>
-        <v>6.386673625605116E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.332209330083774E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -4206,8 +4206,8 @@
         <v>11</v>
       </c>
       <c r="P76">
-        <f t="shared" si="0"/>
-        <v>6.5814284163850018E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5285890512422354E-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4254,8 +4254,8 @@
         <v>15</v>
       </c>
       <c r="P77">
-        <f t="shared" si="0"/>
-        <v>7.6355418930158445E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5900444662729077E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4296,8 +4296,8 @@
         <v>53</v>
       </c>
       <c r="P78">
-        <f t="shared" si="0"/>
-        <v>6.0313431339959415E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.9736400125886394E-2</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -4338,8 +4338,8 @@
         <v>53</v>
       </c>
       <c r="P79">
-        <f t="shared" si="0"/>
-        <v>7.6614032657209744E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6160603332694268E-2</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -4386,8 +4386,8 @@
         <v>22</v>
       </c>
       <c r="P80">
-        <f t="shared" si="0"/>
-        <v>3.3312310036981811E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2255813429519956E-2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -4434,8 +4434,8 @@
         <v>15</v>
       </c>
       <c r="P81">
-        <f t="shared" si="0"/>
-        <v>4.6228995230266461E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.5473591237112559E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -4482,8 +4482,8 @@
         <v>15</v>
       </c>
       <c r="P82">
-        <f t="shared" si="0"/>
-        <v>6.8685588007965689E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8179450716473217E-2</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -4530,8 +4530,8 @@
         <v>15</v>
       </c>
       <c r="P83">
-        <f t="shared" si="0"/>
-        <v>6.6228015220146833E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5702948944472817E-2</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
         <v>55</v>
       </c>
       <c r="P84" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -4623,8 +4623,8 @@
         <v>22</v>
       </c>
       <c r="P85">
-        <f t="shared" si="0"/>
-        <v>3.1793081008294873E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0684320100012007E-2</v>
       </c>
     </row>
   </sheetData>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA9435E-A379-CF4A-847E-B36ED5E6FEC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EE1F5C-8E2D-A945-8625-732DE23BD1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1245,7 @@
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="J14">
-        <v>3.9E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="K14">
         <v>8.6999999999999994E-2</v>
@@ -1293,7 +1293,7 @@
         <v>3.4000000000000002E-4</v>
       </c>
       <c r="J15">
-        <v>3.9E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="K15">
         <v>8.6999999999999994E-2</v>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EE1F5C-8E2D-A945-8625-732DE23BD1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02154F8C-B6C3-C546-A6F7-60E6F4EDBEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
     <sheet name="blend" sheetId="2" r:id="rId2"/>
     <sheet name="unknown" sheetId="3" r:id="rId3"/>
+    <sheet name="awsom_compare" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">resolve!$A$1:$P$85</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="60">
   <si>
     <t>ion</t>
   </si>
@@ -577,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4628,6 +4632,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P85" xr:uid="{443A4939-AAA9-0147-9A34-7764F6EAC704}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4636,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02149022-7C1E-734A-A269-E036E35CA0BA}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
@@ -7306,4 +7311,1469 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F63E81-A4CF-9247-AD79-5742074FBF9F}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>55.85</v>
+      </c>
+      <c r="E2">
+        <v>5.9</v>
+      </c>
+      <c r="F2">
+        <v>174.52099999999999</v>
+      </c>
+      <c r="G2">
+        <v>174.53100000000001</v>
+      </c>
+      <c r="H2">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2">
+        <v>3.8511429999999999E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>4.7997890578649394E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E3">
+        <v>5.9</v>
+      </c>
+      <c r="F3">
+        <v>177.23</v>
+      </c>
+      <c r="G3">
+        <v>177.24</v>
+      </c>
+      <c r="H3">
+        <v>8.0780000000000005E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="J3">
+        <v>4.07E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.9046829999999998E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <v>5.0247844729898627E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>182.16300000000001</v>
+      </c>
+      <c r="G4">
+        <v>182.167</v>
+      </c>
+      <c r="H4">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>4.1376679999999999E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>4.8163134241865954E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.9994</v>
+      </c>
+      <c r="E5">
+        <v>5.6</v>
+      </c>
+      <c r="F5">
+        <v>184.11600000000001</v>
+      </c>
+      <c r="G5">
+        <v>184.11699999999999</v>
+      </c>
+      <c r="H5">
+        <v>8.14E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J5">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>4.9262439999999998E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>5.1238632885743547E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E6">
+        <v>5.9</v>
+      </c>
+      <c r="F6">
+        <v>184.53299999999999</v>
+      </c>
+      <c r="G6">
+        <v>184.53700000000001</v>
+      </c>
+      <c r="H6">
+        <v>7.8280000000000002E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="J6">
+        <v>3.56E-2</v>
+      </c>
+      <c r="M6">
+        <v>4.038514E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6">
+        <v>4.6121534016118772E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E7">
+        <v>5.8</v>
+      </c>
+      <c r="F7">
+        <v>185.209</v>
+      </c>
+      <c r="G7">
+        <v>185.21299999999999</v>
+      </c>
+      <c r="H7">
+        <v>7.6480000000000006E-2</v>
+      </c>
+      <c r="I7">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="J7">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7">
+        <v>3.9857990000000003E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <v>4.2995673038109326E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>54.938000000000002</v>
+      </c>
+      <c r="E8">
+        <v>5.8</v>
+      </c>
+      <c r="F8">
+        <v>185.44900000000001</v>
+      </c>
+      <c r="G8">
+        <v>185.46299999999999</v>
+      </c>
+      <c r="H8">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J8">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="M8">
+        <v>3.9677190000000001E-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="0">SQRT((H8^2)-(0.06325^2))</f>
+        <v>5.3434796715249144E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E9">
+        <v>5.8</v>
+      </c>
+      <c r="F9">
+        <v>186.6</v>
+      </c>
+      <c r="G9">
+        <v>186.59800000000001</v>
+      </c>
+      <c r="H9">
+        <v>7.9810000000000006E-2</v>
+      </c>
+      <c r="I9">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="J9">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9">
+        <v>4.0446419999999997E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>4.8673130164393591E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>188.214</v>
+      </c>
+      <c r="G10">
+        <v>188.21600000000001</v>
+      </c>
+      <c r="H10">
+        <v>8.0339999999999995E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="J10">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10">
+        <v>4.3082919999999997E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>4.9537390928469371E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>188.3</v>
+      </c>
+      <c r="G11">
+        <v>188.29900000000001</v>
+      </c>
+      <c r="H11">
+        <v>8.0339999999999995E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="J11">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11">
+        <v>4.3082919999999997E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>4.9537390928469371E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E12">
+        <v>5.8</v>
+      </c>
+      <c r="F12">
+        <v>189.93299999999999</v>
+      </c>
+      <c r="G12">
+        <v>189.935</v>
+      </c>
+      <c r="H12">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="I12">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J12">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12">
+        <v>4.0285799999999997E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>4.0859851933162966E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E13">
+        <v>5.9</v>
+      </c>
+      <c r="F13">
+        <v>190.03399999999999</v>
+      </c>
+      <c r="G13">
+        <v>190.03700000000001</v>
+      </c>
+      <c r="H13">
+        <v>7.9780000000000004E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="J13">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13">
+        <v>4.3359620000000001E-2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>4.8623923124322253E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E14">
+        <v>5.8</v>
+      </c>
+      <c r="F14">
+        <v>191.209</v>
+      </c>
+      <c r="G14">
+        <v>191.20599999999999</v>
+      </c>
+      <c r="H14">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14">
+        <v>4.124208E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>4.4089085951060508E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E15">
+        <v>6.1</v>
+      </c>
+      <c r="F15">
+        <v>192.39400000000001</v>
+      </c>
+      <c r="G15">
+        <v>192.39400000000001</v>
+      </c>
+      <c r="H15">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J15">
+        <v>4.19E-2</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15">
+        <v>4.6077840000000002E-2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>5.1079619223326246E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>192.626</v>
+      </c>
+      <c r="G16">
+        <v>192.62700000000001</v>
+      </c>
+      <c r="H16">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="I16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16">
+        <v>4.0970729999999997E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>5.1713900452392873E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E17">
+        <v>6.1</v>
+      </c>
+      <c r="F17">
+        <v>193.50899999999999</v>
+      </c>
+      <c r="G17">
+        <v>193.50899999999999</v>
+      </c>
+      <c r="H17">
+        <v>8.0570000000000003E-2</v>
+      </c>
+      <c r="I17">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="J17">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17">
+        <v>4.6398120000000001E-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <v>4.9909542173816823E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E18">
+        <v>5.9</v>
+      </c>
+      <c r="F18">
+        <v>193.71100000000001</v>
+      </c>
+      <c r="G18">
+        <v>193.715</v>
+      </c>
+      <c r="H18">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J18">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18">
+        <v>4.1717780000000003E-2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>4.5302069489152476E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E19">
+        <v>5.8</v>
+      </c>
+      <c r="F19">
+        <v>194.65600000000001</v>
+      </c>
+      <c r="G19">
+        <v>194.661</v>
+      </c>
+      <c r="H19">
+        <v>7.7160000000000006E-2</v>
+      </c>
+      <c r="I19">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="J19">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19">
+        <v>4.8378079999999997E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>4.4193926053248546E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E20">
+        <v>6.1</v>
+      </c>
+      <c r="F20">
+        <v>195.12299999999999</v>
+      </c>
+      <c r="G20">
+        <v>195.119</v>
+      </c>
+      <c r="H20">
+        <v>8.4360000000000004E-2</v>
+      </c>
+      <c r="I20">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="J20">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20">
+        <v>4.7772589999999997E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>5.5821564829373969E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E21">
+        <v>5.8</v>
+      </c>
+      <c r="F21">
+        <v>197.85599999999999</v>
+      </c>
+      <c r="G21">
+        <v>197.85400000000001</v>
+      </c>
+      <c r="H21">
+        <v>8.0850000000000005E-2</v>
+      </c>
+      <c r="I21">
+        <v>3.5E-4</v>
+      </c>
+      <c r="J21">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21">
+        <v>4.3068790000000003E-2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <v>5.0360301825942234E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E22">
+        <v>6.1</v>
+      </c>
+      <c r="F22">
+        <v>202.05099999999999</v>
+      </c>
+      <c r="G22">
+        <v>202.04400000000001</v>
+      </c>
+      <c r="H22">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J22">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22">
+        <v>5.0407979999999998E-2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>5.2343552611568138E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>55.85</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>202.42400000000001</v>
+      </c>
+      <c r="G23">
+        <v>202.42400000000001</v>
+      </c>
+      <c r="H23">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23">
+        <v>4.5899299999999997E-2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23">
+        <v>5.915232455280181E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>55.85</v>
+      </c>
+      <c r="E24">
+        <v>5.8</v>
+      </c>
+      <c r="F24">
+        <v>253.947</v>
+      </c>
+      <c r="G24">
+        <v>253.95599999999999</v>
+      </c>
+      <c r="H24">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J24">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24">
+        <v>5.4401680000000001E-2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>4.8656731291775029E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>28.0855</v>
+      </c>
+      <c r="E25">
+        <v>5.9</v>
+      </c>
+      <c r="F25">
+        <v>258.08699999999999</v>
+      </c>
+      <c r="G25">
+        <v>258.08</v>
+      </c>
+      <c r="H25">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J25">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25">
+        <v>5.888384E-2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25" si="1">SQRT((H25^2)-(0.06325^2))</f>
+        <v>5.827038269996173E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>28.0855</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>258.37099999999998</v>
+      </c>
+      <c r="G26">
+        <v>258.37400000000002</v>
+      </c>
+      <c r="H26">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="I26">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J26">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26">
+        <v>6.4513689999999999E-2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26">
+        <v>6.0895627921879587E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>32.06</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>259.5</v>
+      </c>
+      <c r="G27">
+        <v>259.49599999999998</v>
+      </c>
+      <c r="H27">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.01</v>
+      </c>
+      <c r="J27">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27">
+        <v>6.6618339999999998E-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27">
+        <v>6.6808962722077939E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>28.0855</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>261.05399999999997</v>
+      </c>
+      <c r="G28">
+        <v>261.05599999999998</v>
+      </c>
+      <c r="H28">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="I28">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J28">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28">
+        <v>6.5550929999999993E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28">
+        <v>5.6933711454638186E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>32.06</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>264.233</v>
+      </c>
+      <c r="G29">
+        <v>264.23</v>
+      </c>
+      <c r="H29">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="I29">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="J29">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29">
+        <v>6.5445859999999995E-2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>5.915232455280181E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>24.305</v>
+      </c>
+      <c r="E30">
+        <v>5.7</v>
+      </c>
+      <c r="F30">
+        <v>268.98200000000003</v>
+      </c>
+      <c r="G30">
+        <v>268.99099999999999</v>
+      </c>
+      <c r="H30">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I30">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J30">
+        <v>5.45E-2</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30">
+        <v>6.4163479999999995E-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30" si="2">SQRT((H30^2)-(0.06325^2))</f>
+        <v>6.1183637518539218E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>28.0855</v>
+      </c>
+      <c r="E31">
+        <v>5.8</v>
+      </c>
+      <c r="F31">
+        <v>272.642</v>
+      </c>
+      <c r="G31">
+        <v>272.64699999999999</v>
+      </c>
+      <c r="H31">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J31">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31">
+        <v>6.3941419999999999E-2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <v>6.5702948944472817E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>28.0855</v>
+      </c>
+      <c r="E32">
+        <v>5.8</v>
+      </c>
+      <c r="F32">
+        <v>275.363</v>
+      </c>
+      <c r="G32">
+        <v>275.36099999999999</v>
+      </c>
+      <c r="H32">
+        <v>9.1649999999999995E-2</v>
+      </c>
+      <c r="I32">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="J32">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32">
+        <v>6.4746719999999994E-2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32">
+        <v>6.632616376664642E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>28.0855</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>275.678</v>
+      </c>
+      <c r="G33" s="1">
+        <v>275.67500000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33">
+        <v>6.4743640000000005E-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>6.332209330083774E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>24.305</v>
+      </c>
+      <c r="E34">
+        <v>5.8</v>
+      </c>
+      <c r="F34">
+        <v>276.137</v>
+      </c>
+      <c r="G34">
+        <v>276.154</v>
+      </c>
+      <c r="H34">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="I34">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J34">
+        <v>5.91E-2</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34">
+        <v>6.617982E-2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>6.5285890512422354E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02154F8C-B6C3-C546-A6F7-60E6F4EDBEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8319A8D-77DB-2343-ABA8-28ECB7D6B50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7318,12 +7318,13 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7408,7 +7409,12 @@
       <c r="J2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="K2">
+        <v>0.79893999999999998</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.4E-5</v>
+      </c>
       <c r="M2">
         <v>3.8511429999999999E-2</v>
       </c>
@@ -7450,6 +7456,12 @@
       <c r="J3">
         <v>4.07E-2</v>
       </c>
+      <c r="K3">
+        <v>8.0154000000000003E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
       <c r="M3">
         <v>3.9046829999999998E-2</v>
       </c>
@@ -7490,6 +7502,12 @@
       </c>
       <c r="J4">
         <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>8.1313999999999997E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.7E-5</v>
       </c>
       <c r="M4">
         <v>4.1376679999999999E-2</v>
@@ -7532,6 +7550,12 @@
       <c r="J5">
         <v>4.2099999999999999E-2</v>
       </c>
+      <c r="K5">
+        <v>8.5597000000000006E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5.8E-5</v>
+      </c>
       <c r="M5">
         <v>4.9262439999999998E-2</v>
       </c>
@@ -7573,6 +7597,12 @@
       <c r="J6">
         <v>3.56E-2</v>
       </c>
+      <c r="K6">
+        <v>8.0810000000000007E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.7999999999999998E-4</v>
+      </c>
       <c r="M6">
         <v>4.038514E-2</v>
       </c>
@@ -7614,7 +7644,12 @@
       <c r="J7">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="K7">
+        <v>8.0551899999999996E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.9999999999999996E-6</v>
+      </c>
       <c r="M7">
         <v>3.9857990000000003E-2</v>
       </c>
@@ -7656,6 +7691,12 @@
       <c r="J8">
         <v>4.4699999999999997E-2</v>
       </c>
+      <c r="K8">
+        <v>8.0460000000000004E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="M8">
         <v>3.9677190000000001E-2</v>
       </c>
@@ -7701,7 +7742,12 @@
       <c r="J9">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="K9">
+        <v>8.0878000000000005E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
       <c r="M9">
         <v>4.0446419999999997E-2</v>
       </c>
@@ -7743,7 +7789,12 @@
       <c r="J10">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="K10">
+        <v>8.2196000000000005E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="M10">
         <v>4.3082919999999997E-2</v>
       </c>
@@ -7785,7 +7836,12 @@
       <c r="J11">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="K11">
+        <v>8.2196000000000005E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="M11">
         <v>4.3082919999999997E-2</v>
       </c>
@@ -7827,7 +7883,12 @@
       <c r="J12">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="K12">
+        <v>8.0759999999999998E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6.9999999999999994E-5</v>
+      </c>
       <c r="M12">
         <v>4.0285799999999997E-2</v>
       </c>
@@ -7869,7 +7930,12 @@
       <c r="J13">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="K13">
+        <v>8.4209999999999993E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="M13">
         <v>4.3359620000000001E-2</v>
       </c>
@@ -7911,7 +7977,12 @@
       <c r="J14">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="K14">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.1000000000000001E-4</v>
+      </c>
       <c r="M14">
         <v>4.124208E-2</v>
       </c>
@@ -7953,7 +8024,12 @@
       <c r="J15">
         <v>4.19E-2</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="K15">
+        <v>8.3804000000000003E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>8.5000000000000006E-5</v>
+      </c>
       <c r="M15">
         <v>4.6077840000000002E-2</v>
       </c>
@@ -7995,7 +8071,12 @@
       <c r="J16">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="K16">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="M16">
         <v>4.0970729999999997E-2</v>
       </c>
@@ -8037,7 +8118,12 @@
       <c r="J17">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="K17">
+        <v>8.3981E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>9.5000000000000005E-5</v>
+      </c>
       <c r="M17">
         <v>4.6398120000000001E-2</v>
       </c>
@@ -8079,7 +8165,12 @@
       <c r="J18">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="K18">
+        <v>8.1490000000000007E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.4000000000000005E-4</v>
+      </c>
       <c r="M18">
         <v>4.1717780000000003E-2</v>
       </c>
@@ -8121,12 +8212,17 @@
       <c r="J19">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="K19">
+        <v>8.5091E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5.3000000000000001E-5</v>
+      </c>
       <c r="M19">
         <v>4.8378079999999997E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P19">
         <v>4.4193926053248546E-2</v>
@@ -8163,7 +8259,12 @@
       <c r="J20">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="K20">
+        <v>8.4748000000000004E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.2E-5</v>
+      </c>
       <c r="M20">
         <v>4.7772589999999997E-2</v>
       </c>
@@ -8205,7 +8306,12 @@
       <c r="J21">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="K21">
+        <v>8.2187999999999997E-2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1.2999999999999999E-5</v>
+      </c>
       <c r="M21">
         <v>4.3068790000000003E-2</v>
       </c>
@@ -8247,7 +8353,12 @@
       <c r="J22">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="K22">
+        <v>8.6260000000000003E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4.0999999999999999E-4</v>
+      </c>
       <c r="M22">
         <v>5.0407979999999998E-2</v>
       </c>
@@ -8289,7 +8400,12 @@
       <c r="J23">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="K23">
+        <v>8.3706000000000003E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="M23">
         <v>4.5899299999999997E-2</v>
       </c>
@@ -8331,7 +8447,12 @@
       <c r="J24">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="K24">
+        <v>8.8650000000000007E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1.4999999999999999E-4</v>
+      </c>
       <c r="M24">
         <v>5.4401680000000001E-2</v>
       </c>
@@ -8376,7 +8497,12 @@
       <c r="J25">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="K25">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
       <c r="M25">
         <v>5.888384E-2</v>
       </c>
@@ -8422,7 +8548,12 @@
       <c r="J26">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="K26">
+        <v>9.5195000000000002E-2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3.1999999999999999E-5</v>
+      </c>
       <c r="M26">
         <v>6.4513689999999999E-2</v>
       </c>
@@ -8464,7 +8595,12 @@
       <c r="J27">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="K27">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2E-3</v>
+      </c>
       <c r="M27">
         <v>6.6618339999999998E-2</v>
       </c>
@@ -8509,7 +8645,12 @@
       <c r="J28">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="K28">
+        <v>9.5901E-2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5.3999999999999998E-5</v>
+      </c>
       <c r="M28">
         <v>6.5550929999999993E-2</v>
       </c>
@@ -8551,7 +8692,12 @@
       <c r="J29">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="K29">
+        <v>9.5828999999999998E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>6.4999999999999994E-5</v>
+      </c>
       <c r="M29">
         <v>6.5445859999999995E-2</v>
       </c>
@@ -8593,7 +8739,12 @@
       <c r="J30">
         <v>5.45E-2</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="K30">
+        <v>9.4957600000000003E-2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>6.4999999999999996E-6</v>
+      </c>
       <c r="M30">
         <v>6.4163479999999995E-2</v>
       </c>
@@ -8636,7 +8787,12 @@
       <c r="J31">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="K31">
+        <v>9.4808000000000003E-2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
       <c r="M31">
         <v>6.3941419999999999E-2</v>
       </c>
@@ -8678,7 +8834,12 @@
       <c r="J32">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="K32">
+        <v>9.5352999999999993E-2</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1.1E-5</v>
+      </c>
       <c r="M32">
         <v>6.4746719999999994E-2</v>
       </c>
@@ -8720,7 +8881,12 @@
       <c r="J33" s="1">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="L33" s="4"/>
+      <c r="K33" s="1">
+        <v>9.5351000000000005E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1.5E-5</v>
+      </c>
       <c r="M33">
         <v>6.4743640000000005E-2</v>
       </c>
@@ -8762,7 +8928,12 @@
       <c r="J34">
         <v>5.91E-2</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="K34">
+        <v>9.6331600000000003E-2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>6.9999999999999999E-6</v>
+      </c>
       <c r="M34">
         <v>6.617982E-2</v>
       </c>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8319A8D-77DB-2343-ABA8-28ECB7D6B50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777BB1E0-45D6-DC45-8A7A-5AD75A55207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6878,7 +6878,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7317,7 +7317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F63E81-A4CF-9247-AD79-5742074FBF9F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777BB1E0-45D6-DC45-8A7A-5AD75A55207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0892C01-4104-7547-87CE-F7B495BF5EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,8 +688,8 @@
         <v>11</v>
       </c>
       <c r="P2">
-        <f>SQRT((H2^2)-(0.06325^2))</f>
-        <v>4.7997890578649394E-2</v>
+        <f>SQRT((H2^2)-(0.06245^2))</f>
+        <v>4.9034248235289589E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -733,8 +733,8 @@
         <v>22</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">SQRT((H3^2)-(0.06325^2))</f>
-        <v>1.4541234473042506E-2</v>
+        <f t="shared" ref="P3:P66" si="0">SQRT((H3^2)-(0.06245^2))</f>
+        <v>1.766373403332375E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>177.24</v>
       </c>
       <c r="H4">
-        <v>8.0780000000000005E-2</v>
+        <v>8.0769999999999995E-2</v>
       </c>
       <c r="I4">
         <v>6.4000000000000005E-4</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>5.0247844729898627E-2</v>
+        <v>5.1222947982325261E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -808,13 +808,13 @@
         <v>182.167</v>
       </c>
       <c r="H5">
-        <v>7.9500000000000001E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="I5">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J5">
-        <v>3.8100000000000002E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="K5">
         <v>8.5999999999999993E-2</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>4.8163134241865954E-2</v>
+        <v>5.0319355123053786E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -856,13 +856,13 @@
         <v>182.30699999999999</v>
       </c>
       <c r="H6">
-        <v>8.6800000000000002E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="I6">
-        <v>3.7000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="J6">
-        <v>5.1700000000000003E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="K6">
         <v>8.2000000000000003E-2</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>5.9444743249508616E-2</v>
+        <v>5.8543637570619055E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -904,13 +904,13 @@
         <v>183.93700000000001</v>
       </c>
       <c r="H7">
-        <v>9.2100000000000001E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="I7">
-        <v>5.5999999999999999E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="J7">
-        <v>6.0199999999999997E-2</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="K7">
         <v>8.5999999999999993E-2</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>6.69466018555087E-2</v>
+        <v>7.4614258020836738E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -952,13 +952,13 @@
         <v>184.11699999999999</v>
       </c>
       <c r="H8">
-        <v>8.14E-2</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="I8">
-        <v>1.4E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J8">
-        <v>4.2099999999999999E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="K8">
         <v>8.5000000000000006E-2</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>5.1238632885743547E-2</v>
+        <v>5.1741738470986856E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1000,13 +1000,13 @@
         <v>184.53700000000001</v>
       </c>
       <c r="H9">
-        <v>7.8280000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="I9">
-        <v>5.1999999999999995E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="J9">
-        <v>3.56E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="K9">
         <v>8.4000000000000005E-2</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>4.6121534016118772E-2</v>
+        <v>4.8383855778554898E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>7.6480000000000006E-2</v>
       </c>
       <c r="I10">
-        <v>4.4000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="J10">
         <v>3.1399999999999997E-2</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>4.2995673038109326E-2</v>
+        <v>4.41496081522815E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>5.3434796715249144E-2</v>
+        <v>5.4367614440951888E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>186.59800000000001</v>
       </c>
       <c r="H12">
-        <v>7.9810000000000006E-2</v>
+        <v>7.979E-2</v>
       </c>
       <c r="I12">
-        <v>7.2000000000000005E-4</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="J12">
         <v>3.8800000000000001E-2</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>4.8673130164393591E-2</v>
+        <v>4.9663282211307787E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1195,13 +1195,13 @@
         <v>187.24</v>
       </c>
       <c r="H13">
-        <v>9.74E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="I13">
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="J13">
-        <v>6.83E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="K13">
         <v>0.08</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>7.4068869979229471E-2</v>
+        <v>7.4874878964843752E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>4.9537390928469371E-2</v>
+        <v>5.0542191286092844E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>4.9537390928469371E-2</v>
+        <v>5.0542191286092844E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>5.827038269996173E-2</v>
+        <v>5.9126960855433786E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>3.4401126435045691E-2</v>
+        <v>3.5832910850222589E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>5.827038269996173E-2</v>
+        <v>5.9126960855433786E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1483,13 +1483,13 @@
         <v>189.935</v>
       </c>
       <c r="H19">
-        <v>7.5300000000000006E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="I19">
-        <v>5.9999999999999995E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="J19">
-        <v>2.9100000000000001E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="K19">
         <v>8.3000000000000004E-2</v>
@@ -1501,11 +1501,11 @@
         <v>4.41E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>4.0859851933162966E-2</v>
+        <v>4.1713397128500578E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1531,13 +1531,13 @@
         <v>190.03700000000001</v>
       </c>
       <c r="H20">
-        <v>7.9780000000000004E-2</v>
+        <v>8.0269999999999994E-2</v>
       </c>
       <c r="I20">
-        <v>5.5999999999999995E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="J20">
-        <v>3.8899999999999997E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="K20">
         <v>8.5000000000000006E-2</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>4.8623923124322253E-2</v>
+        <v>5.0430847702571877E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="J21">
-        <v>5.4600000000000003E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="K21">
         <v>0.09</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>6.2043512956633906E-2</v>
+        <v>6.2848687337127424E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>4.4089085951060508E-2</v>
+        <v>4.5215124681902634E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>6.4026849836611513E-2</v>
+        <v>6.4807387696156987E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>5.1079619223326246E-2</v>
+        <v>5.2054658773254867E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>5.1713900452392873E-2</v>
+        <v>5.2677200950695925E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>4.9909542173816823E-2</v>
+        <v>5.0906997554363786E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>4.5302069489152476E-2</v>
+        <v>4.6398679938118928E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>2.1486681921599724E-2</v>
+        <v>2.3711547819575178E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>4.2495617421094152E-2</v>
+        <v>4.3662770182387657E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>4.4193926053248546E-2</v>
+        <v>4.5317359808356009E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>195.119</v>
       </c>
       <c r="H31">
-        <v>8.4360000000000004E-2</v>
+        <v>8.4370000000000001E-2</v>
       </c>
       <c r="I31">
         <v>5.1000000000000004E-4</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>5.5821564829373969E-2</v>
+        <v>5.6730013220516712E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>6.6631449031219819E-3</v>
+        <v>1.2039829733015348E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>5.6933711454638186E-2</v>
+        <v>5.7810098598774243E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>4.8984053527653268E-2</v>
+        <v>4.9999974999993757E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="J36">
-        <v>5.5E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="K36">
         <v>8.4000000000000005E-2</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>6.2043512956633906E-2</v>
+        <v>6.2848687337127424E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>5.0360301825942234E-2</v>
+        <v>5.1349001937720275E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>7.3410132134467648E-2</v>
+        <v>7.4091885520615547E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>3.5843095569439869E-2</v>
+        <v>3.7219450560157387E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>5.5427858518979418E-2</v>
+        <v>5.6327679696575456E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>4.3562340387082045E-2</v>
+        <v>4.4701649857695404E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>202.04400000000001</v>
       </c>
       <c r="H42">
-        <v>8.2100000000000006E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="I42">
         <v>1.2999999999999999E-3</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>5.2343552611568138E-2</v>
+        <v>5.3449391951639634E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>5.915232455280181E-2</v>
+        <v>5.9996312386679233E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>1.7020208576865353E-2</v>
+        <v>1.9754682989104148E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>6.3463355568390806E-2</v>
+        <v>6.4250739295357531E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>3.821841833461976E-2</v>
+        <v>3.9512118394234443E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>4.5815363143818913E-2</v>
+        <v>4.6899973347540404E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -2908,13 +2908,13 @@
         <v>207.44800000000001</v>
       </c>
       <c r="H49">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="I49">
         <v>1.8E-3</v>
       </c>
       <c r="J49">
-        <v>1.2999999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="K49">
         <v>8.6999999999999994E-2</v>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>3.2255813429519956E-2</v>
+        <v>3.3567953467555936E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
         <v>246.00200000000001</v>
       </c>
       <c r="H50">
-        <v>6.0499999999999998E-2</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="I50">
-        <v>9.1999999999999998E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="K50">
         <v>9.2999999999999999E-2</v>
@@ -3037,16 +3037,16 @@
         <v>250.136</v>
       </c>
       <c r="G52">
-        <v>250.13399999999999</v>
+        <v>250.13499999999999</v>
       </c>
       <c r="H52">
-        <v>0.106</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="I52">
-        <v>2.1000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J52">
-        <v>8.0600000000000005E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="K52">
         <v>9.4E-2</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>8.5061374900715067E-2</v>
+        <v>8.1908470257965382E-2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>4.8656731291775029E-2</v>
+        <v>4.9679346815351744E-2</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>3.269369205213752E-2</v>
+        <v>3.4197039345533989E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>1.6631220640710667E-2</v>
+        <v>1.9420543246778669E-2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>2.9990623534698321E-2</v>
+        <v>3.1622737073188349E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>7.0883266713660992E-2</v>
+        <v>7.1589087855622249E-2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3373,7 +3373,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="I59">
-        <v>4.1000000000000003E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J59">
         <v>5.1299999999999998E-2</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>5.856515602301423E-2</v>
+        <v>5.9417484800351486E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>6.1183637518539218E-2</v>
+        <v>6.1999979838706393E-2</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>5.827038269996173E-2</v>
+        <v>5.9126960855433786E-2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -3523,7 +3523,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="J62">
-        <v>5.4100000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K62">
         <v>0.105</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>6.0895627921879587E-2</v>
+        <v>6.1715779991830297E-2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>6.6808962722077939E-2</v>
+        <v>6.7557364513426657E-2</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>5.6784130705682216E-2</v>
+        <v>5.7662791295600681E-2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -3667,10 +3667,10 @@
         <v>8.5099999999999995E-2</v>
       </c>
       <c r="I65">
-        <v>4.7999999999999996E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="J65">
-        <v>4.9399999999999999E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="K65">
         <v>0.106</v>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>5.6933711454638186E-2</v>
+        <v>5.7810098598774243E-2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -3715,7 +3715,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="I66">
-        <v>5.8999999999999999E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="J66">
         <v>5.1999999999999998E-2</v>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
-        <v>5.915232455280181E-2</v>
+        <v>5.9996312386679233E-2</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -3781,8 +3781,8 @@
         <v>15</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P85" si="1">SQRT((H67^2)-(0.06325^2))</f>
-        <v>5.3589621196645912E-2</v>
+        <f t="shared" ref="P67:P85" si="1">SQRT((H67^2)-(0.06245^2))</f>
+        <v>5.4519789984921997E-2</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -3802,7 +3802,7 @@
         <v>5.9</v>
       </c>
       <c r="F68">
-        <v>266.09199999999998</v>
+        <v>266.09100000000001</v>
       </c>
       <c r="G68">
         <v>266.04899999999998</v>
@@ -3814,7 +3814,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J68">
-        <v>6.0499999999999998E-2</v>
+        <v>6.0600000000000001E-2</v>
       </c>
       <c r="K68">
         <v>9.6000000000000002E-2</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="P68">
         <f t="shared" si="1"/>
-        <v>6.6808962722077939E-2</v>
+        <v>6.7557364513426657E-2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="J70">
-        <v>5.45E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="K70">
         <v>9.5000000000000001E-2</v>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="1"/>
-        <v>6.1183637518539218E-2</v>
+        <v>6.1999979838706393E-2</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="P72">
         <f t="shared" si="1"/>
-        <v>6.7084107655986602E-2</v>
+        <v>6.7829473682168587E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="1"/>
-        <v>6.5702948944472817E-2</v>
+        <v>6.6463805939774481E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>275.36099999999999</v>
       </c>
       <c r="H74">
-        <v>9.1649999999999995E-2</v>
+        <v>9.1660000000000005E-2</v>
       </c>
       <c r="I74">
         <v>5.1000000000000004E-4</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="1"/>
-        <v>6.632616376664642E-2</v>
+        <v>6.7093614450258993E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -4141,10 +4141,10 @@
         <v>275.67500000000001</v>
       </c>
       <c r="H75" s="1">
-        <v>8.9499999999999996E-2</v>
+        <v>8.9599999999999999E-2</v>
       </c>
       <c r="I75" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J75" s="1">
         <v>5.6899999999999999E-2</v>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="1"/>
-        <v>6.332209330083774E-2</v>
+        <v>6.4250739295357531E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -4189,13 +4189,13 @@
         <v>276.154</v>
       </c>
       <c r="H76">
-        <v>9.0899999999999995E-2</v>
+        <v>9.11E-2</v>
       </c>
       <c r="I76">
-        <v>3.3E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J76">
-        <v>5.91E-2</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="K76">
         <v>9.6000000000000002E-2</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="1"/>
-        <v>6.5285890512422354E-2</v>
+        <v>6.6326521844583403E-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="P77">
         <f t="shared" si="1"/>
-        <v>7.5900444662729077E-2</v>
+        <v>7.6560025470215204E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="P78">
         <f t="shared" si="1"/>
-        <v>5.9736400125886394E-2</v>
+        <v>6.0572250247122233E-2</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="P79">
         <f t="shared" si="1"/>
-        <v>7.6160603332694268E-2</v>
+        <v>7.6817950376197888E-2</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="P80">
         <f t="shared" si="1"/>
-        <v>3.2255813429519956E-2</v>
+        <v>3.3778654502510899E-2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -4420,10 +4420,10 @@
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="I81">
-        <v>7.4000000000000003E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="J81">
-        <v>3.6200000000000003E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="K81">
         <v>9.7000000000000003E-2</v>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="P81">
         <f t="shared" si="1"/>
-        <v>4.5473591237112559E-2</v>
+        <v>4.6566162607627443E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="1"/>
-        <v>6.8179450716473217E-2</v>
+        <v>6.8912970477262123E-2</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="P83">
         <f t="shared" si="1"/>
-        <v>6.5702948944472817E-2</v>
+        <v>6.6463805939774481E-2</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="P85">
         <f t="shared" si="1"/>
-        <v>3.0684320100012007E-2</v>
+        <v>3.2281380082022526E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4641,8 +4641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02149022-7C1E-734A-A269-E036E35CA0BA}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4719,10 +4719,10 @@
         <v>180.40100000000001</v>
       </c>
       <c r="H2">
-        <v>8.4849999999999995E-2</v>
+        <v>8.4839999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>7.2000000000000005E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="J2">
         <v>4.8300000000000003E-2</v>
@@ -4780,13 +4780,10 @@
         <v>184.41</v>
       </c>
       <c r="H4">
-        <v>7.4399999999999994E-2</v>
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="I4">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="J4">
-        <v>2.6100000000000002E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="K4">
         <v>8.3000000000000004E-2</v>
@@ -4844,10 +4841,10 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="I6">
-        <v>3.3999999999999998E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J6">
-        <v>7.3700000000000002E-2</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="K6">
         <v>0.104</v>
@@ -5341,7 +5338,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="J23">
-        <v>3.9899999999999998E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="K23">
         <v>8.3000000000000004E-2</v>
@@ -5463,7 +5460,7 @@
         <v>5.9000000000000003E-4</v>
       </c>
       <c r="J27">
-        <v>3.7499999999999999E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="K27">
         <v>8.7999999999999995E-2</v>
@@ -5971,7 +5968,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="J44">
-        <v>4.5499999999999999E-2</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="K44">
         <v>9.5000000000000001E-2</v>
@@ -6084,13 +6081,13 @@
         <v>247.40199999999999</v>
       </c>
       <c r="H48">
-        <v>8.7099999999999997E-2</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="I48">
-        <v>9.7000000000000003E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="J48">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="K48">
         <v>9.1999999999999998E-2</v>
@@ -6339,10 +6336,10 @@
         <v>257.25900000000001</v>
       </c>
       <c r="H57">
-        <v>8.4190000000000001E-2</v>
+        <v>8.4180000000000005E-2</v>
       </c>
       <c r="I57">
-        <v>5.4000000000000001E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="J57">
         <v>4.7899999999999998E-2</v>
@@ -6583,13 +6580,13 @@
         <v>274.18</v>
       </c>
       <c r="H65">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="I65">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J65">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="K65">
         <v>0.11600000000000001</v>
@@ -6836,7 +6833,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="J73">
-        <v>9.6000000000000002E-2</v>
+        <v>9.6100000000000005E-2</v>
       </c>
       <c r="K73">
         <v>0.111</v>
@@ -6878,7 +6875,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6967,7 +6964,7 @@
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>8.3000000000000001E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="D6">
         <v>2.6200000000000001E-2</v>
@@ -7082,7 +7079,7 @@
         <v>0.03</v>
       </c>
       <c r="D14">
-        <v>6.8400000000000002E-2</v>
+        <v>6.3100000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7112,7 +7109,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>198.91800000000001</v>
+        <v>198.92</v>
       </c>
       <c r="B17">
         <v>0.09</v>
@@ -7126,7 +7123,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>199.15899999999999</v>
+        <v>199.16</v>
       </c>
       <c r="B18">
         <v>9.7000000000000003E-2</v>
@@ -7199,7 +7196,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C23">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D23">
         <v>2.3599999999999999E-2</v>
@@ -7213,7 +7210,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C24">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D24">
         <v>2.47E-2</v>

--- a/save/eis_line_list_final_v2.xlsx
+++ b/save/eis_line_list_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0892C01-4104-7547-87CE-F7B495BF5EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775BD90-6795-6A44-B752-88AC4A617FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
+    <workbookView xWindow="1880" yWindow="1660" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{EA4E1C0B-CD28-9D4A-8A1A-C099D0FCC1F8}"/>
   </bookViews>
   <sheets>
     <sheet name="resolve" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="60">
   <si>
     <t>ion</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2EDBD4-0677-1F47-BB8B-473DE839059C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="P73" sqref="P73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7312,10 +7312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F63E81-A4CF-9247-AD79-5742074FBF9F}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7419,7 +7419,8 @@
         <v>11</v>
       </c>
       <c r="P2">
-        <v>4.7997890578649394E-2</v>
+        <f>SQRT((H2^2)-(0.06245^2))</f>
+        <v>4.9034248235289589E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -7445,7 +7446,7 @@
         <v>177.24</v>
       </c>
       <c r="H3">
-        <v>8.0780000000000005E-2</v>
+        <v>8.0769999999999995E-2</v>
       </c>
       <c r="I3">
         <v>6.4000000000000005E-4</v>
@@ -7466,7 +7467,8 @@
         <v>11</v>
       </c>
       <c r="P3">
-        <v>5.0247844729898627E-2</v>
+        <f t="shared" ref="P3:P33" si="0">SQRT((H3^2)-(0.06245^2))</f>
+        <v>5.1222947982325261E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -7492,13 +7494,13 @@
         <v>182.167</v>
       </c>
       <c r="H4">
-        <v>7.9500000000000001E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="I4">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J4">
-        <v>3.8100000000000002E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="K4">
         <v>8.1313999999999997E-2</v>
@@ -7513,7 +7515,8 @@
         <v>11</v>
       </c>
       <c r="P4">
-        <v>4.8163134241865954E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0319355123053786E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -7539,13 +7542,13 @@
         <v>184.11699999999999</v>
       </c>
       <c r="H5">
-        <v>8.14E-2</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="I5">
-        <v>1.4E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J5">
-        <v>4.2099999999999999E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="K5">
         <v>8.5597000000000006E-2</v>
@@ -7560,7 +7563,8 @@
         <v>11</v>
       </c>
       <c r="P5">
-        <v>5.1238632885743547E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.1741738470986856E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -7586,13 +7590,13 @@
         <v>184.53700000000001</v>
       </c>
       <c r="H6">
-        <v>7.8280000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>5.1999999999999995E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="J6">
-        <v>3.56E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="K6">
         <v>8.0810000000000007E-2</v>
@@ -7607,7 +7611,8 @@
         <v>11</v>
       </c>
       <c r="P6">
-        <v>4.6121534016118772E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.8383855778554898E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -7636,7 +7641,7 @@
         <v>7.6480000000000006E-2</v>
       </c>
       <c r="I7">
-        <v>4.4000000000000002E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="J7">
         <v>3.1399999999999997E-2</v>
@@ -7654,7 +7659,8 @@
         <v>11</v>
       </c>
       <c r="P7">
-        <v>4.2995673038109326E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.41496081522815E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -7704,8 +7710,8 @@
         <v>36</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8" si="0">SQRT((H8^2)-(0.06325^2))</f>
-        <v>5.3434796715249144E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.4367614440951888E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -7731,10 +7737,10 @@
         <v>186.59800000000001</v>
       </c>
       <c r="H9">
-        <v>7.9810000000000006E-2</v>
+        <v>7.979E-2</v>
       </c>
       <c r="I9">
-        <v>7.2000000000000005E-4</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="J9">
         <v>3.8800000000000001E-2</v>
@@ -7752,7 +7758,8 @@
         <v>11</v>
       </c>
       <c r="P9">
-        <v>4.8673130164393591E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.9663282211307787E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -7799,7 +7806,8 @@
         <v>11</v>
       </c>
       <c r="P10">
-        <v>4.9537390928469371E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0542191286092844E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -7846,7 +7854,8 @@
         <v>11</v>
       </c>
       <c r="P11">
-        <v>4.9537390928469371E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0542191286092844E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -7854,46 +7863,47 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>55.85</v>
       </c>
       <c r="E12">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F12">
-        <v>189.93299999999999</v>
+        <v>190.03399999999999</v>
       </c>
       <c r="G12">
-        <v>189.935</v>
+        <v>190.03700000000001</v>
       </c>
       <c r="H12">
-        <v>7.5300000000000006E-2</v>
+        <v>8.0269999999999994E-2</v>
       </c>
       <c r="I12">
-        <v>5.9999999999999995E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="J12">
-        <v>2.9100000000000001E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="K12">
-        <v>8.0759999999999998E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="L12" s="3">
-        <v>6.9999999999999994E-5</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="M12">
-        <v>4.0285799999999997E-2</v>
+        <v>4.3359620000000001E-2</v>
       </c>
       <c r="N12" t="s">
         <v>11</v>
       </c>
       <c r="P12">
-        <v>4.0859851933162966E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0430847702571877E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -7901,46 +7911,47 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>55.85</v>
       </c>
       <c r="E13">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F13">
-        <v>190.03399999999999</v>
+        <v>191.209</v>
       </c>
       <c r="G13">
-        <v>190.03700000000001</v>
+        <v>191.20599999999999</v>
       </c>
       <c r="H13">
-        <v>7.9780000000000004E-2</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="I13">
-        <v>5.5999999999999995E-4</v>
+        <v>1.8E-3</v>
       </c>
       <c r="J13">
-        <v>3.8899999999999997E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K13">
-        <v>8.4209999999999993E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.9000000000000001E-4</v>
+        <v>2.1000000000000001E-4</v>
       </c>
       <c r="M13">
-        <v>4.3359620000000001E-2</v>
+        <v>4.124208E-2</v>
       </c>
       <c r="N13" t="s">
         <v>11</v>
       </c>
       <c r="P13">
-        <v>4.8623923124322253E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5215124681902634E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7948,46 +7959,47 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>55.85</v>
       </c>
       <c r="E14">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="F14">
-        <v>191.209</v>
+        <v>192.39400000000001</v>
       </c>
       <c r="G14">
-        <v>191.20599999999999</v>
+        <v>192.39400000000001</v>
       </c>
       <c r="H14">
-        <v>7.7100000000000002E-2</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="I14">
-        <v>1.8E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J14">
-        <v>3.3099999999999997E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="K14">
-        <v>8.1250000000000003E-2</v>
+        <v>8.3804000000000003E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>2.1000000000000001E-4</v>
+        <v>8.5000000000000006E-5</v>
       </c>
       <c r="M14">
-        <v>4.124208E-2</v>
+        <v>4.6077840000000002E-2</v>
       </c>
       <c r="N14" t="s">
         <v>11</v>
       </c>
       <c r="P14">
-        <v>4.4089085951060508E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2054658773254867E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -7995,46 +8007,47 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>55.85</v>
       </c>
       <c r="E15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>192.39400000000001</v>
+        <v>192.626</v>
       </c>
       <c r="G15">
-        <v>192.39400000000001</v>
+        <v>192.62700000000001</v>
       </c>
       <c r="H15">
-        <v>8.1299999999999997E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="I15">
-        <v>2.3999999999999998E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J15">
-        <v>4.19E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="K15">
-        <v>8.3804000000000003E-2</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>8.5000000000000006E-5</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M15">
-        <v>4.6077840000000002E-2</v>
+        <v>4.0970729999999997E-2</v>
       </c>
       <c r="N15" t="s">
         <v>11</v>
       </c>
       <c r="P15">
-        <v>5.1079619223326246E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2677200950695925E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -8042,46 +8055,47 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>55.85</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F16">
-        <v>192.626</v>
+        <v>193.50899999999999</v>
       </c>
       <c r="G16">
-        <v>192.62700000000001</v>
+        <v>193.50899999999999</v>
       </c>
       <c r="H16">
-        <v>8.1699999999999995E-2</v>
+        <v>8.0570000000000003E-2</v>
       </c>
       <c r="I16">
-        <v>1.6000000000000001E-3</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="J16">
-        <v>4.2700000000000002E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="K16">
-        <v>8.1100000000000005E-2</v>
+        <v>8.3981E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.1999999999999999E-3</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="M16">
-        <v>4.0970729999999997E-2</v>
+        <v>4.6398120000000001E-2</v>
       </c>
       <c r="N16" t="s">
         <v>11</v>
       </c>
       <c r="P16">
-        <v>5.1713900452392873E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0906997554363786E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -8089,46 +8103,47 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>55.85</v>
       </c>
       <c r="E17">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="F17">
-        <v>193.50899999999999</v>
+        <v>193.71100000000001</v>
       </c>
       <c r="G17">
-        <v>193.50899999999999</v>
+        <v>193.715</v>
       </c>
       <c r="H17">
-        <v>8.0570000000000003E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="I17">
-        <v>5.1999999999999995E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J17">
-        <v>4.0399999999999998E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="K17">
-        <v>8.3981E-2</v>
+        <v>8.1490000000000007E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>9.5000000000000005E-5</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="M17">
-        <v>4.6398120000000001E-2</v>
+        <v>4.1717780000000003E-2</v>
       </c>
       <c r="N17" t="s">
         <v>11</v>
       </c>
       <c r="P17">
-        <v>4.9909542173816823E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6398679938118928E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -8136,46 +8151,47 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1">
         <v>55.85</v>
       </c>
       <c r="E18">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F18">
-        <v>193.71100000000001</v>
+        <v>194.65600000000001</v>
       </c>
       <c r="G18">
-        <v>193.715</v>
+        <v>194.661</v>
       </c>
       <c r="H18">
-        <v>7.7799999999999994E-2</v>
+        <v>7.7160000000000006E-2</v>
       </c>
       <c r="I18">
-        <v>1.1999999999999999E-3</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="J18">
-        <v>3.4599999999999999E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="K18">
-        <v>8.1490000000000007E-2</v>
+        <v>8.5091E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>6.4000000000000005E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="M18">
-        <v>4.1717780000000003E-2</v>
+        <v>4.8378079999999997E-2</v>
       </c>
       <c r="N18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P18">
-        <v>4.5302069489152476E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5317359808356009E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -8183,46 +8199,47 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1">
         <v>55.85</v>
       </c>
       <c r="E19">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="F19">
-        <v>194.65600000000001</v>
+        <v>195.12299999999999</v>
       </c>
       <c r="G19">
-        <v>194.661</v>
+        <v>195.119</v>
       </c>
       <c r="H19">
-        <v>7.7160000000000006E-2</v>
+        <v>8.4370000000000001E-2</v>
       </c>
       <c r="I19">
-        <v>4.8999999999999998E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="J19">
-        <v>3.3099999999999997E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="K19">
-        <v>8.5091E-2</v>
+        <v>8.4748000000000004E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>5.3000000000000001E-5</v>
+        <v>1.2E-5</v>
       </c>
       <c r="M19">
-        <v>4.8378079999999997E-2</v>
+        <v>4.7772589999999997E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>4.4193926053248546E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6730013220516712E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -8230,46 +8247,47 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <v>55.85</v>
       </c>
       <c r="E20">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F20">
-        <v>195.12299999999999</v>
+        <v>197.85599999999999</v>
       </c>
       <c r="G20">
-        <v>195.119</v>
+        <v>197.85400000000001</v>
       </c>
       <c r="H20">
-        <v>8.4360000000000004E-2</v>
+        <v>8.0850000000000005E-2</v>
       </c>
       <c r="I20">
-        <v>5.1000000000000004E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="J20">
-        <v>4.7500000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="K20">
-        <v>8.4748000000000004E-2</v>
+        <v>8.2187999999999997E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>1.2E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="M20">
-        <v>4.7772589999999997E-2</v>
+        <v>4.3068790000000003E-2</v>
       </c>
       <c r="N20" t="s">
         <v>11</v>
       </c>
       <c r="P20">
-        <v>5.5821564829373969E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.1349001937720275E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -8277,46 +8295,47 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>55.85</v>
       </c>
       <c r="E21">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="F21">
-        <v>197.85599999999999</v>
+        <v>202.05099999999999</v>
       </c>
       <c r="G21">
-        <v>197.85400000000001</v>
+        <v>202.04400000000001</v>
       </c>
       <c r="H21">
-        <v>8.0850000000000005E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="I21">
-        <v>3.5E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J21">
-        <v>4.1000000000000002E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="K21">
-        <v>8.2187999999999997E-2</v>
+        <v>8.6260000000000003E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>1.2999999999999999E-5</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="M21">
-        <v>4.3068790000000003E-2</v>
+        <v>5.0407979999999998E-2</v>
       </c>
       <c r="N21" t="s">
         <v>11</v>
       </c>
       <c r="P21">
-        <v>5.0360301825942234E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3449391951639634E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -8324,46 +8343,47 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>55.85</v>
       </c>
       <c r="E22">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>202.05099999999999</v>
+        <v>202.42400000000001</v>
       </c>
       <c r="G22">
-        <v>202.04400000000001</v>
+        <v>202.42400000000001</v>
       </c>
       <c r="H22">
-        <v>8.2100000000000006E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="I22">
-        <v>1.2999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J22">
-        <v>4.3499999999999997E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="K22">
-        <v>8.6260000000000003E-2</v>
+        <v>8.3706000000000003E-2</v>
       </c>
       <c r="L22" s="3">
-        <v>4.0999999999999999E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="M22">
-        <v>5.0407979999999998E-2</v>
+        <v>4.5899299999999997E-2</v>
       </c>
       <c r="N22" t="s">
         <v>11</v>
       </c>
       <c r="P22">
-        <v>5.2343552611568138E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9996312386679233E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -8371,96 +8391,101 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23">
         <v>55.85</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F23">
-        <v>202.42400000000001</v>
+        <v>253.947</v>
       </c>
       <c r="G23">
-        <v>202.42400000000001</v>
+        <v>253.95599999999999</v>
       </c>
       <c r="H23">
-        <v>8.6599999999999996E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="I23">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J23">
-        <v>5.1400000000000001E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="K23">
-        <v>8.3706000000000003E-2</v>
+        <v>8.8650000000000007E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="M23">
-        <v>4.5899299999999997E-2</v>
+        <v>5.4401680000000001E-2</v>
       </c>
       <c r="N23" t="s">
         <v>11</v>
       </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
       <c r="P23">
-        <v>5.915232455280181E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.9679346815351744E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>55.85</v>
+        <v>28.0855</v>
       </c>
       <c r="E24">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F24">
-        <v>253.947</v>
+        <v>258.08699999999999</v>
       </c>
       <c r="G24">
-        <v>253.95599999999999</v>
+        <v>258.08</v>
       </c>
       <c r="H24">
-        <v>7.9799999999999996E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I24">
-        <v>2.8E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J24">
-        <v>3.9600000000000003E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="K24">
-        <v>8.8650000000000007E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>1.4999999999999999E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M24">
-        <v>5.4401680000000001E-2</v>
+        <v>5.888384E-2</v>
       </c>
       <c r="N24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P24">
-        <v>4.8656731291775029E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9126960855433786E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -8468,55 +8493,52 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>28.0855</v>
       </c>
       <c r="E25">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>258.08699999999999</v>
+        <v>258.37099999999998</v>
       </c>
       <c r="G25">
-        <v>258.08</v>
+        <v>258.37400000000002</v>
       </c>
       <c r="H25">
-        <v>8.5999999999999993E-2</v>
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="I25">
-        <v>1.7999999999999999E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J25">
-        <v>5.0299999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K25">
-        <v>9.1499999999999998E-2</v>
+        <v>9.5195000000000002E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>1.6000000000000001E-3</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="M25">
-        <v>5.888384E-2</v>
+        <v>6.4513689999999999E-2</v>
       </c>
       <c r="N25" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25" si="1">SQRT((H25^2)-(0.06325^2))</f>
-        <v>5.827038269996173E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1715779991830297E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -8525,45 +8547,49 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>28.0855</v>
+        <v>32.06</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
       <c r="F26">
-        <v>258.37099999999998</v>
+        <v>259.5</v>
       </c>
       <c r="G26">
-        <v>258.37400000000002</v>
+        <v>259.49599999999998</v>
       </c>
       <c r="H26">
-        <v>8.7800000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I26">
-        <v>2.5999999999999999E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J26">
-        <v>5.4100000000000002E-2</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="K26">
-        <v>9.5195000000000002E-2</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>3.1999999999999999E-5</v>
+        <v>2E-3</v>
       </c>
       <c r="M26">
-        <v>6.4513689999999999E-2</v>
+        <v>6.6618339999999998E-2</v>
       </c>
       <c r="N26" t="s">
         <v>11</v>
       </c>
+      <c r="O26" t="s">
+        <v>47</v>
+      </c>
       <c r="P26">
-        <v>6.0895627921879587E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7557364513426657E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -8572,48 +8598,46 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>32.06</v>
+        <v>28.0855</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
-        <v>259.5</v>
+        <v>261.05399999999997</v>
       </c>
       <c r="G27">
-        <v>259.49599999999998</v>
+        <v>261.05599999999998</v>
       </c>
       <c r="H27">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="I27">
-        <v>0.01</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="J27">
-        <v>6.0499999999999998E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="K27">
-        <v>9.6600000000000005E-2</v>
+        <v>9.5901E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2E-3</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="M27">
-        <v>6.6618339999999998E-2</v>
+        <v>6.5550929999999993E-2</v>
       </c>
       <c r="N27" t="s">
         <v>11</v>
       </c>
-      <c r="O27" t="s">
-        <v>47</v>
-      </c>
       <c r="P27">
-        <v>6.6808962722077939E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.7810098598774243E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -8622,135 +8646,137 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>28.0855</v>
+        <v>32.06</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="F28">
-        <v>261.05399999999997</v>
+        <v>264.233</v>
       </c>
       <c r="G28">
-        <v>261.05599999999998</v>
+        <v>264.23</v>
       </c>
       <c r="H28">
-        <v>8.5099999999999995E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="I28">
-        <v>4.7999999999999996E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="J28">
-        <v>4.9399999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="K28">
-        <v>9.5901E-2</v>
+        <v>9.5828999999999998E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>5.3999999999999998E-5</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="M28">
-        <v>6.5550929999999993E-2</v>
+        <v>6.5445859999999995E-2</v>
       </c>
       <c r="N28" t="s">
         <v>11</v>
       </c>
       <c r="P28">
-        <v>5.6933711454638186E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9996312386679233E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>32.06</v>
+        <v>24.305</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F29">
-        <v>264.233</v>
+        <v>268.98200000000003</v>
       </c>
       <c r="G29">
-        <v>264.23</v>
+        <v>268.99099999999999</v>
       </c>
       <c r="H29">
-        <v>8.6599999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I29">
-        <v>5.8999999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J29">
-        <v>5.1999999999999998E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="K29">
-        <v>9.5828999999999998E-2</v>
+        <v>9.4957600000000003E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>6.4999999999999994E-5</v>
+        <v>6.4999999999999996E-6</v>
       </c>
       <c r="M29">
-        <v>6.5445859999999995E-2</v>
+        <v>6.4163479999999995E-2</v>
       </c>
       <c r="N29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P29">
-        <v>5.915232455280181E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1999979838706393E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>24.305</v>
+        <v>28.0855</v>
       </c>
       <c r="E30">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F30">
-        <v>268.98200000000003</v>
+        <v>272.642</v>
       </c>
       <c r="G30">
-        <v>268.99099999999999</v>
+        <v>272.64699999999999</v>
       </c>
       <c r="H30">
-        <v>8.7999999999999995E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="I30">
-        <v>1.2E-2</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J30">
-        <v>5.45E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="K30">
-        <v>9.4957600000000003E-2</v>
+        <v>9.4808000000000003E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>6.4999999999999996E-6</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="M30">
-        <v>6.4163479999999995E-2</v>
+        <v>6.3941419999999999E-2</v>
       </c>
       <c r="N30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30" si="2">SQRT((H30^2)-(0.06325^2))</f>
-        <v>6.1183637518539218E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6463805939774481E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -8770,175 +8796,131 @@
         <v>5.8</v>
       </c>
       <c r="F31">
-        <v>272.642</v>
+        <v>275.363</v>
       </c>
       <c r="G31">
-        <v>272.64699999999999</v>
+        <v>275.36099999999999</v>
       </c>
       <c r="H31">
-        <v>9.1200000000000003E-2</v>
+        <v>9.1660000000000005E-2</v>
       </c>
       <c r="I31">
-        <v>1.5E-3</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="J31">
-        <v>5.9400000000000001E-2</v>
+        <v>6.0100000000000001E-2</v>
       </c>
       <c r="K31">
-        <v>9.4808000000000003E-2</v>
+        <v>9.5352999999999993E-2</v>
       </c>
       <c r="L31" s="3">
-        <v>2.0000000000000002E-5</v>
+        <v>1.1E-5</v>
       </c>
       <c r="M31">
-        <v>6.3941419999999999E-2</v>
+        <v>6.4746719999999994E-2</v>
       </c>
       <c r="N31" t="s">
         <v>11</v>
       </c>
       <c r="P31">
-        <v>6.5702948944472817E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7093614450258993E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>28.0855</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>5.8</v>
       </c>
-      <c r="F32">
-        <v>275.363</v>
-      </c>
-      <c r="G32">
-        <v>275.36099999999999</v>
-      </c>
-      <c r="H32">
-        <v>9.1649999999999995E-2</v>
-      </c>
-      <c r="I32">
-        <v>5.1000000000000004E-4</v>
-      </c>
-      <c r="J32">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="K32">
-        <v>9.5352999999999993E-2</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1.1E-5</v>
+      <c r="F32" s="1">
+        <v>275.678</v>
+      </c>
+      <c r="G32" s="1">
+        <v>275.67500000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>9.5351000000000005E-2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1.5E-5</v>
       </c>
       <c r="M32">
-        <v>6.4746719999999994E-2</v>
+        <v>6.4743640000000005E-2</v>
       </c>
       <c r="N32" t="s">
         <v>11</v>
       </c>
       <c r="P32">
-        <v>6.632616376664642E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.4250739295357531E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
-        <v>28.0855</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33">
+        <v>24.305</v>
+      </c>
+      <c r="E33">
         <v>5.8</v>
       </c>
-      <c r="F33" s="1">
-        <v>275.678</v>
-      </c>
-      <c r="G33" s="1">
-        <v>275.67500000000001</v>
-      </c>
-      <c r="H33" s="1">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J33" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="K33" s="1">
-        <v>9.5351000000000005E-2</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1.5E-5</v>
+      <c r="F33">
+        <v>276.137</v>
+      </c>
+      <c r="G33">
+        <v>276.154</v>
+      </c>
+      <c r="H33">
+        <v>9.11E-2</v>
+      </c>
+      <c r="I33">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J33">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="K33">
+        <v>9.6331600000000003E-2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="M33">
-        <v>6.4743640000000005E-2</v>
+        <v>6.617982E-2</v>
       </c>
       <c r="N33" t="s">
         <v>11</v>
       </c>
       <c r="P33">
-        <v>6.332209330083774E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>24.305</v>
-      </c>
-      <c r="E34">
-        <v>5.8</v>
-      </c>
-      <c r="F34">
-        <v>276.137</v>
-      </c>
-      <c r="G34">
-        <v>276.154</v>
-      </c>
-      <c r="H34">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="I34">
-        <v>3.3E-3</v>
-      </c>
-      <c r="J34">
-        <v>5.91E-2</v>
-      </c>
-      <c r="K34">
-        <v>9.6331600000000003E-2</v>
-      </c>
-      <c r="L34" s="3">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="M34">
-        <v>6.617982E-2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34">
-        <v>6.5285890512422354E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6326521844583403E-2</v>
       </c>
     </row>
   </sheetData>
